--- a/youtube_webscrab/Comparing_all.xlsx
+++ b/youtube_webscrab/Comparing_all.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15955</v>
+        <v>16267</v>
       </c>
       <c r="E2" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45006</v>
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9026</v>
+        <v>9168</v>
       </c>
       <c r="E3" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44999</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17908</v>
+        <v>18201</v>
       </c>
       <c r="E4" t="n">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="F4" t="n">
         <v>172</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9817</v>
+        <v>9843</v>
       </c>
       <c r="E5" t="n">
         <v>230</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>194087</v>
+        <v>195803</v>
       </c>
       <c r="E6" t="n">
-        <v>6768</v>
+        <v>6808</v>
       </c>
       <c r="F6" t="n">
         <v>301</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20416</v>
+        <v>20531</v>
       </c>
       <c r="E7" t="n">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16171</v>
+        <v>16221</v>
       </c>
       <c r="E8" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F8" t="n">
         <v>46</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>227758</v>
+        <v>230468</v>
       </c>
       <c r="E9" t="n">
-        <v>5790</v>
+        <v>5860</v>
       </c>
       <c r="F9" t="n">
         <v>195</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35536</v>
+        <v>35597</v>
       </c>
       <c r="E10" t="n">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F10" t="n">
         <v>110</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33005</v>
+        <v>33191</v>
       </c>
       <c r="E11" t="n">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="F11" t="n">
         <v>55</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20498</v>
+        <v>20571</v>
       </c>
       <c r="E12" t="n">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F12" t="n">
         <v>63</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>135918</v>
+        <v>136709</v>
       </c>
       <c r="E13" t="n">
-        <v>4567</v>
+        <v>4592</v>
       </c>
       <c r="F13" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>44858</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28314</v>
+        <v>28379</v>
       </c>
       <c r="E14" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="F14" t="n">
         <v>116</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47448</v>
+        <v>47518</v>
       </c>
       <c r="E15" t="n">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="F15" t="n">
         <v>124</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82280</v>
+        <v>82434</v>
       </c>
       <c r="E16" t="n">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="F16" t="n">
         <v>183</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24511</v>
+        <v>24555</v>
       </c>
       <c r="E17" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F17" t="n">
         <v>91</v>
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>85565</v>
+        <v>85637</v>
       </c>
       <c r="E18" t="n">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="F18" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>44823</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23988</v>
+        <v>24039</v>
       </c>
       <c r="E19" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F19" t="n">
         <v>68</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56865</v>
+        <v>57079</v>
       </c>
       <c r="E20" t="n">
-        <v>2226</v>
+        <v>2231</v>
       </c>
       <c r="F20" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44816</v>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28082</v>
+        <v>28130</v>
       </c>
       <c r="E21" t="n">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="F21" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>44812</v>
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>159257</v>
+        <v>159946</v>
       </c>
       <c r="E22" t="n">
-        <v>4225</v>
+        <v>4247</v>
       </c>
       <c r="F22" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44806</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51219</v>
+        <v>51286</v>
       </c>
       <c r="E23" t="n">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F23" t="n">
         <v>135</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22441</v>
+        <v>22509</v>
       </c>
       <c r="E24" t="n">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="F24" t="n">
         <v>101</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41058</v>
+        <v>41169</v>
       </c>
       <c r="E25" t="n">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F25" t="n">
         <v>154</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25783</v>
+        <v>25807</v>
       </c>
       <c r="E26" t="n">
         <v>570</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19228</v>
+        <v>19256</v>
       </c>
       <c r="E27" t="n">
         <v>515</v>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16281</v>
+        <v>16299</v>
       </c>
       <c r="E28" t="n">
         <v>523</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52415</v>
+        <v>52439</v>
       </c>
       <c r="E29" t="n">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F29" t="n">
         <v>106</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13184</v>
+        <v>13197</v>
       </c>
       <c r="E30" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F30" t="n">
         <v>47</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>88467</v>
+        <v>88650</v>
       </c>
       <c r="E31" t="n">
-        <v>2376</v>
+        <v>2385</v>
       </c>
       <c r="F31" t="n">
         <v>145</v>
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>115787</v>
+        <v>116094</v>
       </c>
       <c r="E32" t="n">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44682</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15708</v>
+        <v>15751</v>
       </c>
       <c r="E33" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F33" t="n">
         <v>77</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>27752</v>
+        <v>27771</v>
       </c>
       <c r="E34" t="n">
         <v>537</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>96053</v>
+        <v>96282</v>
       </c>
       <c r="E35" t="n">
-        <v>2654</v>
+        <v>2661</v>
       </c>
       <c r="F35" t="n">
         <v>229</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>158680</v>
+        <v>159004</v>
       </c>
       <c r="E36" t="n">
-        <v>4076</v>
+        <v>4087</v>
       </c>
       <c r="F36" t="n">
         <v>383</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>114368</v>
+        <v>114466</v>
       </c>
       <c r="E37" t="n">
-        <v>4103</v>
+        <v>4107</v>
       </c>
       <c r="F37" t="n">
         <v>333</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>27178</v>
+        <v>27208</v>
       </c>
       <c r="E38" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F38" t="n">
         <v>84</v>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>131429</v>
+        <v>131683</v>
       </c>
       <c r="E39" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="F39" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>44607</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>118252</v>
+        <v>118324</v>
       </c>
       <c r="E40" t="n">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="F40" t="n">
         <v>181</v>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>550397</v>
+        <v>551296</v>
       </c>
       <c r="E41" t="n">
-        <v>13061</v>
+        <v>13081</v>
       </c>
       <c r="F41" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44593</v>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>151094</v>
+        <v>151512</v>
       </c>
       <c r="E42" t="n">
-        <v>5160</v>
+        <v>5171</v>
       </c>
       <c r="F42" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>44575</v>
@@ -1801,13 +1801,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>420571</v>
+        <v>421530</v>
       </c>
       <c r="E43" t="n">
-        <v>10787</v>
+        <v>10803</v>
       </c>
       <c r="F43" t="n">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>44567</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>310080</v>
+        <v>310217</v>
       </c>
       <c r="E44" t="n">
-        <v>11861</v>
+        <v>11868</v>
       </c>
       <c r="F44" t="n">
         <v>1030</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>46565</v>
+        <v>46588</v>
       </c>
       <c r="E45" t="n">
         <v>1156</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>205503</v>
+        <v>205582</v>
       </c>
       <c r="E46" t="n">
-        <v>4501</v>
+        <v>4503</v>
       </c>
       <c r="F46" t="n">
         <v>286</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>485592</v>
+        <v>486368</v>
       </c>
       <c r="E47" t="n">
-        <v>16832</v>
+        <v>16863</v>
       </c>
       <c r="F47" t="n">
         <v>479</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>63331</v>
+        <v>63423</v>
       </c>
       <c r="E48" t="n">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="F48" t="n">
         <v>118</v>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E49" t="n">
         <v>104</v>
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>125542</v>
+        <v>125887</v>
       </c>
       <c r="E50" t="n">
-        <v>4081</v>
+        <v>4092</v>
       </c>
       <c r="F50" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44497</v>
@@ -2057,13 +2057,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>58723</v>
+        <v>58855</v>
       </c>
       <c r="E51" t="n">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="F51" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>44482</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>59246</v>
+        <v>59281</v>
       </c>
       <c r="E52" t="n">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="F52" t="n">
         <v>170</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>60739</v>
+        <v>60923</v>
       </c>
       <c r="E53" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="F53" t="n">
         <v>79</v>
@@ -2153,13 +2153,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>82601</v>
+        <v>82764</v>
       </c>
       <c r="E54" t="n">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="F54" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>44452</v>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>316954</v>
+        <v>317508</v>
       </c>
       <c r="E55" t="n">
-        <v>7953</v>
+        <v>7970</v>
       </c>
       <c r="F55" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44444</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8143</v>
+        <v>8162</v>
       </c>
       <c r="E56" t="n">
         <v>424</v>
@@ -2249,13 +2249,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1060081</v>
+        <v>1061506</v>
       </c>
       <c r="E57" t="n">
-        <v>24612</v>
+        <v>24649</v>
       </c>
       <c r="F57" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>44430</v>
@@ -2281,13 +2281,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>189012</v>
+        <v>189368</v>
       </c>
       <c r="E58" t="n">
-        <v>7088</v>
+        <v>7106</v>
       </c>
       <c r="F58" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>44421</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>47396</v>
+        <v>47465</v>
       </c>
       <c r="E59" t="n">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="F59" t="n">
         <v>59</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>33571</v>
+        <v>33626</v>
       </c>
       <c r="E60" t="n">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F60" t="n">
         <v>127</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>92895</v>
+        <v>93103</v>
       </c>
       <c r="E61" t="n">
-        <v>3244</v>
+        <v>3249</v>
       </c>
       <c r="F61" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>44382</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25171</v>
+        <v>25247</v>
       </c>
       <c r="E63" t="n">
         <v>753</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29370</v>
+        <v>29425</v>
       </c>
       <c r="E64" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F64" t="n">
         <v>55</v>
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>550085</v>
+        <v>551086</v>
       </c>
       <c r="E65" t="n">
-        <v>17962</v>
+        <v>17999</v>
       </c>
       <c r="F65" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>44337</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8034</v>
+        <v>8059</v>
       </c>
       <c r="E66" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F66" t="n">
         <v>32</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9419</v>
+        <v>9451</v>
       </c>
       <c r="E67" t="n">
         <v>273</v>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3882</v>
+        <v>3904</v>
       </c>
       <c r="E68" t="n">
         <v>134</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>110298</v>
+        <v>110491</v>
       </c>
       <c r="E69" t="n">
-        <v>3394</v>
+        <v>3403</v>
       </c>
       <c r="F69" t="n">
         <v>183</v>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2480</v>
+        <v>2489</v>
       </c>
       <c r="E70" t="n">
         <v>63</v>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2087</v>
+        <v>2103</v>
       </c>
       <c r="E71" t="n">
         <v>58</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7793</v>
+        <v>7833</v>
       </c>
       <c r="E72" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F72" t="n">
         <v>11</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3564</v>
+        <v>3578</v>
       </c>
       <c r="E73" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2234</v>
+        <v>2239</v>
       </c>
       <c r="E74" t="n">
         <v>70</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>51483</v>
+        <v>51511</v>
       </c>
       <c r="E75" t="n">
         <v>724</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3207</v>
+        <v>3219</v>
       </c>
       <c r="E76" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F76" t="n">
         <v>24</v>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2523</v>
+        <v>2534</v>
       </c>
       <c r="E77" t="n">
         <v>83</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2607</v>
+        <v>2618</v>
       </c>
       <c r="E78" t="n">
         <v>96</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4580</v>
+        <v>4593</v>
       </c>
       <c r="E79" t="n">
         <v>131</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>387078</v>
+        <v>387749</v>
       </c>
       <c r="E80" t="n">
-        <v>5365</v>
+        <v>5372</v>
       </c>
       <c r="F80" t="n">
         <v>335</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>27797</v>
+        <v>27826</v>
       </c>
       <c r="E81" t="n">
         <v>652</v>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E82" t="n">
         <v>37</v>
@@ -3081,13 +3081,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>730015</v>
+        <v>730979</v>
       </c>
       <c r="E83" t="n">
-        <v>16106</v>
+        <v>16132</v>
       </c>
       <c r="F83" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44176</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>55108</v>
+        <v>55235</v>
       </c>
       <c r="E84" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F84" t="n">
         <v>92</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>159449</v>
+        <v>159939</v>
       </c>
       <c r="E85" t="n">
-        <v>2986</v>
+        <v>2994</v>
       </c>
       <c r="F85" t="n">
         <v>106</v>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>11188</v>
+        <v>11189</v>
       </c>
       <c r="E86" t="n">
         <v>182</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E87" t="n">
         <v>70</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="E88" t="n">
         <v>88</v>
@@ -3273,10 +3273,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4173</v>
+        <v>4324</v>
       </c>
       <c r="E89" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F89" t="n">
         <v>4</v>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7267</v>
+        <v>7598</v>
       </c>
       <c r="E90" t="n">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10772</v>
+        <v>11242</v>
       </c>
       <c r="E91" t="n">
-        <v>855</v>
+        <v>902</v>
       </c>
       <c r="F91" t="n">
         <v>6</v>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5883</v>
+        <v>5997</v>
       </c>
       <c r="E92" t="n">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F92" t="n">
         <v>12</v>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>12129</v>
+        <v>12492</v>
       </c>
       <c r="E93" t="n">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F93" t="n">
         <v>6</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6765</v>
+        <v>6871</v>
       </c>
       <c r="E94" t="n">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F94" t="n">
         <v>8</v>
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9709</v>
+        <v>9965</v>
       </c>
       <c r="E95" t="n">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F95" t="n">
         <v>13</v>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13734</v>
+        <v>14040</v>
       </c>
       <c r="E96" t="n">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>11271</v>
+        <v>11386</v>
       </c>
       <c r="E97" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F97" t="n">
         <v>15</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7568</v>
+        <v>7634</v>
       </c>
       <c r="E98" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F98" t="n">
         <v>6</v>
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5469</v>
+        <v>5506</v>
       </c>
       <c r="E99" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9479</v>
+        <v>9507</v>
       </c>
       <c r="E100" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F100" t="n">
         <v>7</v>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>25279</v>
+        <v>25688</v>
       </c>
       <c r="E101" t="n">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="F101" t="n">
         <v>12</v>
@@ -3689,13 +3689,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9340</v>
+        <v>9412</v>
       </c>
       <c r="E102" t="n">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44981</v>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>20441</v>
+        <v>20557</v>
       </c>
       <c r="E103" t="n">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="F103" t="n">
         <v>12</v>
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>26992</v>
+        <v>27461</v>
       </c>
       <c r="E104" t="n">
-        <v>1975</v>
+        <v>2023</v>
       </c>
       <c r="F104" t="n">
         <v>27</v>
@@ -3781,17 +3781,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>I analyzed 680,895 jobs to solve THIS</t>
+          <t>I analyzed 684,276 jobs to solve THIS</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>157410</v>
+        <v>157740</v>
       </c>
       <c r="E105" t="n">
-        <v>9524</v>
+        <v>9543</v>
       </c>
       <c r="F105" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44974</v>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>9354</v>
+        <v>9386</v>
       </c>
       <c r="E106" t="n">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F106" t="n">
         <v>22</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>11749</v>
+        <v>11824</v>
       </c>
       <c r="E107" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="F107" t="n">
         <v>22</v>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6304</v>
+        <v>6324</v>
       </c>
       <c r="E108" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F108" t="n">
         <v>12</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>26343</v>
+        <v>26492</v>
       </c>
       <c r="E109" t="n">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="F109" t="n">
         <v>11</v>
@@ -3945,10 +3945,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>15396</v>
+        <v>15424</v>
       </c>
       <c r="E110" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F110" t="n">
         <v>12</v>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7756</v>
+        <v>7770</v>
       </c>
       <c r="E111" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F111" t="n">
         <v>15</v>
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>25178</v>
+        <v>25234</v>
       </c>
       <c r="E112" t="n">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="F112" t="n">
         <v>37</v>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>13150</v>
+        <v>13162</v>
       </c>
       <c r="E113" t="n">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="F113" t="n">
         <v>26</v>
@@ -4073,10 +4073,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>27021</v>
+        <v>27201</v>
       </c>
       <c r="E114" t="n">
-        <v>2829</v>
+        <v>2852</v>
       </c>
       <c r="F114" t="n">
         <v>44</v>
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>22614</v>
+        <v>22676</v>
       </c>
       <c r="E115" t="n">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="F115" t="n">
         <v>31</v>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>20849</v>
+        <v>20954</v>
       </c>
       <c r="E116" t="n">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="F116" t="n">
         <v>32</v>
@@ -4169,13 +4169,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>10555</v>
+        <v>10592</v>
       </c>
       <c r="E117" t="n">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="F117" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>44939</v>
@@ -4201,10 +4201,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>39477</v>
+        <v>39786</v>
       </c>
       <c r="E118" t="n">
-        <v>2068</v>
+        <v>2086</v>
       </c>
       <c r="F118" t="n">
         <v>48</v>
@@ -4233,13 +4233,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>36061</v>
+        <v>36233</v>
       </c>
       <c r="E119" t="n">
-        <v>3169</v>
+        <v>3196</v>
       </c>
       <c r="F119" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>44936</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>13427</v>
+        <v>13446</v>
       </c>
       <c r="E120" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F120" t="n">
         <v>14</v>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>19737</v>
+        <v>19801</v>
       </c>
       <c r="E121" t="n">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="F121" t="n">
         <v>25</v>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>18872</v>
+        <v>18894</v>
       </c>
       <c r="E122" t="n">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="F122" t="n">
         <v>6</v>
@@ -4361,10 +4361,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>21438</v>
+        <v>21487</v>
       </c>
       <c r="E123" t="n">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="F123" t="n">
         <v>12</v>
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18730</v>
+        <v>18779</v>
       </c>
       <c r="E124" t="n">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="F124" t="n">
         <v>12</v>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="E125" t="n">
         <v>325</v>
@@ -4457,10 +4457,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>16068</v>
+        <v>16119</v>
       </c>
       <c r="E126" t="n">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="F126" t="n">
         <v>22</v>
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>18955</v>
+        <v>18977</v>
       </c>
       <c r="E127" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F127" t="n">
         <v>41</v>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6752</v>
+        <v>6754</v>
       </c>
       <c r="E128" t="n">
         <v>265</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>11065</v>
+        <v>11078</v>
       </c>
       <c r="E129" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F129" t="n">
         <v>14</v>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>26565</v>
+        <v>26826</v>
       </c>
       <c r="E130" t="n">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="F130" t="n">
         <v>29</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>10694</v>
+        <v>10696</v>
       </c>
       <c r="E131" t="n">
         <v>477</v>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>13927</v>
+        <v>13972</v>
       </c>
       <c r="E132" t="n">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F132" t="n">
         <v>13</v>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>15142</v>
+        <v>15152</v>
       </c>
       <c r="E133" t="n">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F133" t="n">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>124273</v>
+        <v>124278</v>
       </c>
       <c r="E134" t="n">
         <v>1902</v>
@@ -4745,10 +4745,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>52016</v>
+        <v>52116</v>
       </c>
       <c r="E135" t="n">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="F135" t="n">
         <v>36</v>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>33371</v>
+        <v>33391</v>
       </c>
       <c r="E136" t="n">
         <v>1327</v>
@@ -4809,13 +4809,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>236396</v>
+        <v>237227</v>
       </c>
       <c r="E137" t="n">
-        <v>10176</v>
+        <v>10193</v>
       </c>
       <c r="F137" t="n">
-        <v>527</v>
+        <v>424</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44890</v>
@@ -4841,10 +4841,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>18975</v>
+        <v>19092</v>
       </c>
       <c r="E138" t="n">
-        <v>1547</v>
+        <v>1563</v>
       </c>
       <c r="F138" t="n">
         <v>22</v>
@@ -4873,10 +4873,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>16321</v>
+        <v>16484</v>
       </c>
       <c r="E139" t="n">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="F139" t="n">
         <v>17</v>
@@ -4905,10 +4905,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>428676</v>
+        <v>428807</v>
       </c>
       <c r="E140" t="n">
-        <v>11379</v>
+        <v>11384</v>
       </c>
       <c r="F140" t="n">
         <v>282</v>
@@ -4937,10 +4937,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>29134</v>
+        <v>29237</v>
       </c>
       <c r="E141" t="n">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="F141" t="n">
         <v>53</v>
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>49505</v>
+        <v>49602</v>
       </c>
       <c r="E142" t="n">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="F142" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44846</v>
@@ -5001,10 +5001,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>43462</v>
+        <v>43497</v>
       </c>
       <c r="E143" t="n">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="F143" t="n">
         <v>121</v>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>93159</v>
+        <v>93233</v>
       </c>
       <c r="E144" t="n">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F144" t="n">
         <v>182</v>
@@ -5065,10 +5065,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>86893</v>
+        <v>86957</v>
       </c>
       <c r="E145" t="n">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="F145" t="n">
         <v>301</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>44996</v>
+        <v>45006</v>
       </c>
       <c r="E146" t="n">
         <v>2093</v>
@@ -5129,10 +5129,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>403672</v>
+        <v>403880</v>
       </c>
       <c r="E147" t="n">
-        <v>12928</v>
+        <v>12941</v>
       </c>
       <c r="F147" t="n">
         <v>549</v>
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>201348</v>
+        <v>201640</v>
       </c>
       <c r="E148" t="n">
-        <v>9420</v>
+        <v>9441</v>
       </c>
       <c r="F148" t="n">
         <v>293</v>
@@ -5193,13 +5193,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>458490</v>
+        <v>458779</v>
       </c>
       <c r="E149" t="n">
-        <v>14747</v>
+        <v>14759</v>
       </c>
       <c r="F149" t="n">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44652</v>
@@ -5225,10 +5225,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>99823</v>
+        <v>99972</v>
       </c>
       <c r="E150" t="n">
-        <v>4847</v>
+        <v>4851</v>
       </c>
       <c r="F150" t="n">
         <v>209</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>110344</v>
+        <v>110435</v>
       </c>
       <c r="E151" t="n">
-        <v>5575</v>
+        <v>5579</v>
       </c>
       <c r="F151" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44617</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>162235</v>
+        <v>162406</v>
       </c>
       <c r="E152" t="n">
-        <v>8387</v>
+        <v>8399</v>
       </c>
       <c r="F152" t="n">
         <v>303</v>
@@ -5321,13 +5321,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>583317</v>
+        <v>583785</v>
       </c>
       <c r="E153" t="n">
-        <v>20831</v>
+        <v>20845</v>
       </c>
       <c r="F153" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44589</v>
@@ -5353,13 +5353,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>161607</v>
+        <v>161724</v>
       </c>
       <c r="E154" t="n">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="F154" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44575</v>
@@ -5385,10 +5385,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1132522</v>
+        <v>1133910</v>
       </c>
       <c r="E155" t="n">
-        <v>46823</v>
+        <v>46885</v>
       </c>
       <c r="F155" t="n">
         <v>1159</v>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>397466</v>
+        <v>398026</v>
       </c>
       <c r="E156" t="n">
-        <v>19199</v>
+        <v>19229</v>
       </c>
       <c r="F156" t="n">
         <v>707</v>
@@ -5449,10 +5449,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>132452</v>
+        <v>132677</v>
       </c>
       <c r="E157" t="n">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="F157" t="n">
         <v>383</v>
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>505455</v>
+        <v>505576</v>
       </c>
       <c r="E158" t="n">
-        <v>18441</v>
+        <v>18444</v>
       </c>
       <c r="F158" t="n">
         <v>459</v>
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>93496</v>
+        <v>93548</v>
       </c>
       <c r="E159" t="n">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="F159" t="n">
         <v>263</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>56343</v>
+        <v>56369</v>
       </c>
       <c r="E160" t="n">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="F160" t="n">
         <v>46</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>71214</v>
+        <v>71291</v>
       </c>
       <c r="E161" t="n">
-        <v>3220</v>
+        <v>3225</v>
       </c>
       <c r="F161" t="n">
         <v>219</v>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>61988</v>
+        <v>62041</v>
       </c>
       <c r="E162" t="n">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="F162" t="n">
         <v>198</v>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>61617</v>
+        <v>61733</v>
       </c>
       <c r="E163" t="n">
-        <v>3769</v>
+        <v>3781</v>
       </c>
       <c r="F163" t="n">
         <v>22</v>
@@ -5673,10 +5673,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>149141</v>
+        <v>149172</v>
       </c>
       <c r="E164" t="n">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="F164" t="n">
         <v>304</v>
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>36782</v>
+        <v>36800</v>
       </c>
       <c r="E165" t="n">
         <v>1968</v>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>225328</v>
+        <v>225464</v>
       </c>
       <c r="E166" t="n">
-        <v>9257</v>
+        <v>9258</v>
       </c>
       <c r="F166" t="n">
         <v>640</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>40350</v>
+        <v>40364</v>
       </c>
       <c r="E167" t="n">
         <v>2035</v>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>22944</v>
+        <v>22947</v>
       </c>
       <c r="E168" t="n">
         <v>1397</v>
@@ -5833,10 +5833,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>85580</v>
+        <v>85615</v>
       </c>
       <c r="E169" t="n">
-        <v>4743</v>
+        <v>4748</v>
       </c>
       <c r="F169" t="n">
         <v>175</v>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>40973</v>
+        <v>40985</v>
       </c>
       <c r="E170" t="n">
         <v>1843</v>
@@ -5929,13 +5929,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>265645</v>
+        <v>265702</v>
       </c>
       <c r="E172" t="n">
-        <v>9643</v>
+        <v>9645</v>
       </c>
       <c r="F172" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>44378</v>
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>49384</v>
+        <v>49404</v>
       </c>
       <c r="E173" t="n">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="F173" t="n">
         <v>263</v>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>142842</v>
+        <v>142853</v>
       </c>
       <c r="E174" t="n">
         <v>4867</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>90848</v>
+        <v>90886</v>
       </c>
       <c r="E175" t="n">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="F175" t="n">
         <v>211</v>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>10840</v>
+        <v>10849</v>
       </c>
       <c r="E176" t="n">
         <v>424</v>
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>249167</v>
+        <v>249224</v>
       </c>
       <c r="E177" t="n">
-        <v>10548</v>
+        <v>10553</v>
       </c>
       <c r="F177" t="n">
         <v>373</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>111846</v>
+        <v>111879</v>
       </c>
       <c r="E178" t="n">
         <v>3239</v>
@@ -6153,10 +6153,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>729443</v>
+        <v>729841</v>
       </c>
       <c r="E179" t="n">
-        <v>27023</v>
+        <v>27036</v>
       </c>
       <c r="F179" t="n">
         <v>1308</v>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>55784</v>
+        <v>55797</v>
       </c>
       <c r="E180" t="n">
         <v>2152</v>
@@ -6217,10 +6217,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4226565</v>
+        <v>4226872</v>
       </c>
       <c r="E181" t="n">
-        <v>107024</v>
+        <v>107026</v>
       </c>
       <c r="F181" t="n">
         <v>3396</v>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>321794</v>
+        <v>321841</v>
       </c>
       <c r="E182" t="n">
-        <v>8042</v>
+        <v>8043</v>
       </c>
       <c r="F182" t="n">
         <v>402</v>
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>75360</v>
+        <v>75399</v>
       </c>
       <c r="E183" t="n">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="F183" t="n">
         <v>245</v>
@@ -6313,10 +6313,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>320203</v>
+        <v>320344</v>
       </c>
       <c r="E184" t="n">
-        <v>7801</v>
+        <v>7802</v>
       </c>
       <c r="F184" t="n">
         <v>477</v>
@@ -6345,10 +6345,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>91097</v>
+        <v>91145</v>
       </c>
       <c r="E185" t="n">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="F185" t="n">
         <v>379</v>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="E186" t="n">
         <v>190</v>
@@ -6409,7 +6409,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50225</v>
+        <v>50289</v>
       </c>
       <c r="E187" t="n">
         <v>1293</v>
@@ -6441,10 +6441,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>308044</v>
+        <v>308092</v>
       </c>
       <c r="E188" t="n">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="F188" t="n">
         <v>684</v>
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>45672</v>
+        <v>45704</v>
       </c>
       <c r="E189" t="n">
         <v>1054</v>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>16679</v>
+        <v>16683</v>
       </c>
       <c r="E190" t="n">
         <v>376</v>
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>110948</v>
+        <v>110985</v>
       </c>
       <c r="E191" t="n">
         <v>2349</v>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="E192" t="n">
         <v>51</v>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E193" t="n">
         <v>49</v>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="E194" t="n">
         <v>51</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>76969</v>
+        <v>76974</v>
       </c>
       <c r="E195" t="n">
         <v>1922</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E196" t="n">
         <v>94</v>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E197" t="n">
         <v>98</v>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="E198" t="n">
         <v>122</v>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>125354</v>
+        <v>125386</v>
       </c>
       <c r="E199" t="n">
         <v>4324</v>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="E200" t="n">
         <v>158</v>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="E201" t="n">
         <v>137</v>
@@ -6889,7 +6889,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="E202" t="n">
         <v>127</v>
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>5533</v>
+        <v>5536</v>
       </c>
       <c r="E203" t="n">
         <v>213</v>
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="E205" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F205" t="n">
         <v>57</v>
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>15060</v>
+        <v>15066</v>
       </c>
       <c r="E206" t="n">
         <v>539</v>
@@ -7049,10 +7049,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>51452</v>
+        <v>51537</v>
       </c>
       <c r="E207" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F207" t="n">
         <v>79</v>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>26749</v>
+        <v>26816</v>
       </c>
       <c r="E208" t="n">
         <v>900</v>
@@ -7113,10 +7113,10 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>13580</v>
+        <v>13607</v>
       </c>
       <c r="E209" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F209" t="n">
         <v>28</v>
@@ -7145,10 +7145,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>15891</v>
+        <v>15923</v>
       </c>
       <c r="E210" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F210" t="n">
         <v>33</v>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>18794</v>
+        <v>18821</v>
       </c>
       <c r="E211" t="n">
         <v>544</v>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>9467</v>
+        <v>9487</v>
       </c>
       <c r="E212" t="n">
         <v>156</v>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>5309</v>
+        <v>5321</v>
       </c>
       <c r="E213" t="n">
         <v>163</v>
@@ -7273,7 +7273,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>5988</v>
+        <v>5993</v>
       </c>
       <c r="E214" t="n">
         <v>104</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6582</v>
+        <v>6591</v>
       </c>
       <c r="E215" t="n">
         <v>126</v>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>18547</v>
+        <v>18576</v>
       </c>
       <c r="E216" t="n">
         <v>279</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>7385</v>
+        <v>7394</v>
       </c>
       <c r="E217" t="n">
         <v>122</v>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2705</v>
+        <v>2711</v>
       </c>
       <c r="E219" t="n">
         <v>115</v>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>3881</v>
+        <v>3886</v>
       </c>
       <c r="E220" t="n">
         <v>147</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20005</v>
+        <v>20024</v>
       </c>
       <c r="E221" t="n">
         <v>383</v>
@@ -7529,13 +7529,13 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1640</v>
+        <v>2044</v>
       </c>
       <c r="E222" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F222" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G222" s="2" t="n">
         <v>45022</v>
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>58473</v>
+        <v>64131</v>
       </c>
       <c r="E223" t="n">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="F223" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G223" s="2" t="n">
         <v>45019</v>
@@ -7593,10 +7593,10 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2727</v>
+        <v>2753</v>
       </c>
       <c r="E224" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F224" t="n">
         <v>2</v>
@@ -7625,10 +7625,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>3124</v>
+        <v>3157</v>
       </c>
       <c r="E225" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F225" t="n">
         <v>2</v>
@@ -7657,10 +7657,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2485</v>
+        <v>2509</v>
       </c>
       <c r="E226" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F226" t="n">
         <v>3</v>
@@ -7689,10 +7689,10 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2620</v>
+        <v>2710</v>
       </c>
       <c r="E227" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F227" t="n">
         <v>3</v>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="E228" t="n">
         <v>102</v>
@@ -7753,10 +7753,10 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2203</v>
+        <v>2220</v>
       </c>
       <c r="E229" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -7785,10 +7785,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="E230" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F230" t="n">
         <v>5</v>
@@ -7817,10 +7817,10 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="E231" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -7849,10 +7849,10 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>14874</v>
+        <v>14947</v>
       </c>
       <c r="E232" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F232" t="n">
         <v>49</v>
@@ -7881,10 +7881,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>4877</v>
+        <v>4909</v>
       </c>
       <c r="E233" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F233" t="n">
         <v>7</v>
@@ -7913,10 +7913,10 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E234" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -7945,10 +7945,10 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="E235" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F235" t="n">
         <v>1</v>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3060</v>
+        <v>3067</v>
       </c>
       <c r="E236" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F236" t="n">
         <v>6</v>
@@ -8009,10 +8009,10 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4448</v>
+        <v>4472</v>
       </c>
       <c r="E237" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F237" t="n">
         <v>6</v>
@@ -8041,10 +8041,10 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3172</v>
+        <v>3185</v>
       </c>
       <c r="E238" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -8073,10 +8073,10 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4219</v>
+        <v>4250</v>
       </c>
       <c r="E239" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F239" t="n">
         <v>22</v>
@@ -8105,10 +8105,10 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="E240" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F240" t="n">
         <v>7</v>
@@ -8137,10 +8137,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6544</v>
+        <v>6579</v>
       </c>
       <c r="E241" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F241" t="n">
         <v>9</v>
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E242" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F242" t="n">
         <v>6</v>
@@ -8201,10 +8201,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3527</v>
+        <v>3538</v>
       </c>
       <c r="E243" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F243" t="n">
         <v>6</v>
@@ -8233,10 +8233,10 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5489</v>
+        <v>5501</v>
       </c>
       <c r="E244" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F244" t="n">
         <v>7</v>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>7668</v>
+        <v>7691</v>
       </c>
       <c r="E246" t="n">
         <v>449</v>
@@ -8329,7 +8329,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3961</v>
+        <v>3967</v>
       </c>
       <c r="E247" t="n">
         <v>402</v>
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>5834</v>
+        <v>5841</v>
       </c>
       <c r="E248" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F248" t="n">
         <v>10</v>
@@ -8393,10 +8393,10 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4627</v>
+        <v>4633</v>
       </c>
       <c r="E249" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F249" t="n">
         <v>6</v>
@@ -8425,10 +8425,10 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>6004</v>
+        <v>6009</v>
       </c>
       <c r="E250" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F250" t="n">
         <v>2</v>
@@ -8457,10 +8457,10 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>98996</v>
+        <v>99470</v>
       </c>
       <c r="E251" t="n">
-        <v>3431</v>
+        <v>3446</v>
       </c>
       <c r="F251" t="n">
         <v>229</v>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>4520</v>
+        <v>4523</v>
       </c>
       <c r="E252" t="n">
         <v>191</v>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>18839</v>
+        <v>18854</v>
       </c>
       <c r="E253" t="n">
         <v>797</v>
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>10104</v>
+        <v>10109</v>
       </c>
       <c r="E254" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F254" t="n">
         <v>50</v>
@@ -8585,10 +8585,10 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>51461</v>
+        <v>51548</v>
       </c>
       <c r="E255" t="n">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="F255" t="n">
         <v>122</v>
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5332</v>
+        <v>5339</v>
       </c>
       <c r="E256" t="n">
         <v>348</v>
@@ -8649,13 +8649,13 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>15833</v>
+        <v>15842</v>
       </c>
       <c r="E257" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F257" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G257" s="2" t="n">
         <v>44802</v>
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>23632</v>
+        <v>23673</v>
       </c>
       <c r="E260" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F260" t="n">
         <v>62</v>
@@ -8777,10 +8777,10 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>51963</v>
+        <v>52100</v>
       </c>
       <c r="E261" t="n">
-        <v>2235</v>
+        <v>2240</v>
       </c>
       <c r="F261" t="n">
         <v>85</v>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>15570</v>
+        <v>15582</v>
       </c>
       <c r="E263" t="n">
         <v>827</v>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>45932</v>
+        <v>46002</v>
       </c>
       <c r="E265" t="n">
         <v>1269</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>19297</v>
+        <v>19318</v>
       </c>
       <c r="E266" t="n">
         <v>835</v>
       </c>
       <c r="F266" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G266" s="2" t="n">
         <v>44645</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>10789</v>
+        <v>10792</v>
       </c>
       <c r="E268" t="n">
         <v>506</v>
@@ -9033,10 +9033,10 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>89304</v>
+        <v>89333</v>
       </c>
       <c r="E269" t="n">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="F269" t="n">
         <v>184</v>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6837</v>
+        <v>6841</v>
       </c>
       <c r="E270" t="n">
         <v>316</v>
@@ -9129,10 +9129,10 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>20245</v>
+        <v>20276</v>
       </c>
       <c r="E272" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F272" t="n">
         <v>92</v>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="E273" t="n">
         <v>417</v>
@@ -9193,10 +9193,10 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>8299</v>
+        <v>8309</v>
       </c>
       <c r="E274" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F274" t="n">
         <v>32</v>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>34004</v>
+        <v>34032</v>
       </c>
       <c r="E275" t="n">
         <v>1912</v>
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>14250</v>
+        <v>14251</v>
       </c>
       <c r="E276" t="n">
         <v>642</v>
@@ -9289,10 +9289,10 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>327764</v>
+        <v>327911</v>
       </c>
       <c r="E277" t="n">
-        <v>14573</v>
+        <v>14577</v>
       </c>
       <c r="F277" t="n">
         <v>531</v>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>9881</v>
+        <v>9889</v>
       </c>
       <c r="E278" t="n">
         <v>380</v>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>7831</v>
+        <v>7833</v>
       </c>
       <c r="E279" t="n">
         <v>557</v>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>23755</v>
+        <v>23759</v>
       </c>
       <c r="E280" t="n">
         <v>1155</v>
@@ -9417,7 +9417,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>28784</v>
+        <v>28790</v>
       </c>
       <c r="E281" t="n">
         <v>1081</v>
@@ -9449,10 +9449,10 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>114928</v>
+        <v>115006</v>
       </c>
       <c r="E282" t="n">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="F282" t="n">
         <v>347</v>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>7896</v>
+        <v>7902</v>
       </c>
       <c r="E283" t="n">
         <v>386</v>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>11270</v>
+        <v>11282</v>
       </c>
       <c r="E285" t="n">
         <v>266</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5955</v>
+        <v>5964</v>
       </c>
       <c r="E286" t="n">
         <v>264</v>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6613</v>
+        <v>6614</v>
       </c>
       <c r="E287" t="n">
         <v>294</v>
@@ -9673,7 +9673,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5753</v>
+        <v>5756</v>
       </c>
       <c r="E289" t="n">
         <v>277</v>
@@ -9705,7 +9705,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>12457</v>
+        <v>12463</v>
       </c>
       <c r="E290" t="n">
         <v>530</v>
@@ -9737,10 +9737,10 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>9723</v>
+        <v>9727</v>
       </c>
       <c r="E291" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F291" t="n">
         <v>32</v>
@@ -9769,10 +9769,10 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>38521</v>
+        <v>38565</v>
       </c>
       <c r="E292" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F292" t="n">
         <v>30</v>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>50198</v>
+        <v>50207</v>
       </c>
       <c r="E293" t="n">
         <v>2323</v>
@@ -9833,7 +9833,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>9789</v>
+        <v>9797</v>
       </c>
       <c r="E294" t="n">
         <v>557</v>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>9281</v>
+        <v>9284</v>
       </c>
       <c r="E296" t="n">
         <v>439</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>13523</v>
+        <v>13536</v>
       </c>
       <c r="E298" t="n">
         <v>558</v>
@@ -9993,10 +9993,10 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="E299" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F299" t="n">
         <v>41</v>
@@ -10025,7 +10025,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>8726</v>
+        <v>8730</v>
       </c>
       <c r="E300" t="n">
         <v>377</v>
@@ -10057,10 +10057,10 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>16077</v>
+        <v>16091</v>
       </c>
       <c r="E301" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F301" t="n">
         <v>89</v>
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>10339</v>
+        <v>10344</v>
       </c>
       <c r="E303" t="n">
         <v>588</v>
@@ -10185,7 +10185,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>14032</v>
+        <v>14044</v>
       </c>
       <c r="E305" t="n">
         <v>879</v>
@@ -10217,10 +10217,10 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>23627</v>
+        <v>23662</v>
       </c>
       <c r="E306" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F306" t="n">
         <v>58</v>
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>21768</v>
+        <v>21790</v>
       </c>
       <c r="E307" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F307" t="n">
         <v>87</v>
@@ -10281,13 +10281,13 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>74557</v>
+        <v>74581</v>
       </c>
       <c r="E308" t="n">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="F308" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G308" s="2" t="n">
         <v>44309</v>
@@ -10313,7 +10313,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23158</v>
+        <v>23162</v>
       </c>
       <c r="E309" t="n">
         <v>685</v>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>133894</v>
+        <v>133911</v>
       </c>
       <c r="E310" t="n">
         <v>3928</v>
@@ -10377,7 +10377,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>51801</v>
+        <v>51812</v>
       </c>
       <c r="E311" t="n">
         <v>1488</v>
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>17754</v>
+        <v>17765</v>
       </c>
       <c r="E313" t="n">
         <v>348</v>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>104087</v>
+        <v>104089</v>
       </c>
       <c r="E318" t="n">
         <v>2338</v>
@@ -10633,10 +10633,10 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>10223</v>
+        <v>10236</v>
       </c>
       <c r="E319" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F319" t="n">
         <v>114</v>
@@ -10697,7 +10697,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9167</v>
+        <v>9169</v>
       </c>
       <c r="E321" t="n">
         <v>293</v>
@@ -10729,7 +10729,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>21181</v>
+        <v>21191</v>
       </c>
       <c r="E322" t="n">
         <v>683</v>
@@ -10761,10 +10761,10 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>35334</v>
+        <v>35347</v>
       </c>
       <c r="E323" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F323" t="n">
         <v>147</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>68344</v>
+        <v>68353</v>
       </c>
       <c r="E324" t="n">
         <v>2288</v>
@@ -10825,10 +10825,10 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>130896</v>
+        <v>130907</v>
       </c>
       <c r="E325" t="n">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="F325" t="n">
         <v>494</v>
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>10640</v>
+        <v>10641</v>
       </c>
       <c r="E326" t="n">
         <v>392</v>
@@ -10889,7 +10889,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>23155</v>
+        <v>23156</v>
       </c>
       <c r="E327" t="n">
         <v>721</v>
@@ -10921,10 +10921,10 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>26254</v>
+        <v>26259</v>
       </c>
       <c r="E328" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F328" t="n">
         <v>167</v>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>16383</v>
+        <v>16386</v>
       </c>
       <c r="E331" t="n">
         <v>717</v>
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>25392</v>
+        <v>25405</v>
       </c>
       <c r="E332" t="n">
         <v>652</v>
@@ -11081,10 +11081,10 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>17925</v>
+        <v>17934</v>
       </c>
       <c r="E333" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F333" t="n">
         <v>92</v>
@@ -11177,7 +11177,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>13365</v>
+        <v>13367</v>
       </c>
       <c r="E336" t="n">
         <v>392</v>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>6478</v>
+        <v>6480</v>
       </c>
       <c r="E337" t="n">
         <v>141</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>10261</v>
+        <v>10270</v>
       </c>
       <c r="E338" t="n">
         <v>533</v>
@@ -11273,7 +11273,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>9302</v>
+        <v>9305</v>
       </c>
       <c r="E339" t="n">
         <v>572</v>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>11253</v>
+        <v>11256</v>
       </c>
       <c r="E342" t="n">
         <v>287</v>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>70283</v>
+        <v>70304</v>
       </c>
       <c r="E343" t="n">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="F343" t="n">
         <v>208</v>
@@ -11465,7 +11465,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>10590</v>
+        <v>10596</v>
       </c>
       <c r="E345" t="n">
         <v>428</v>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>7324</v>
+        <v>7325</v>
       </c>
       <c r="E346" t="n">
         <v>249</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>11564</v>
+        <v>11566</v>
       </c>
       <c r="E352" t="n">
         <v>729</v>
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>17762</v>
+        <v>17764</v>
       </c>
       <c r="E353" t="n">
         <v>565</v>
@@ -11753,10 +11753,10 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>17288</v>
+        <v>17294</v>
       </c>
       <c r="E354" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F354" t="n">
         <v>93</v>
@@ -11785,7 +11785,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>50589</v>
+        <v>50591</v>
       </c>
       <c r="E355" t="n">
         <v>2602</v>
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>14808</v>
+        <v>14813</v>
       </c>
       <c r="E356" t="n">
         <v>618</v>
@@ -11849,7 +11849,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>12422</v>
+        <v>12423</v>
       </c>
       <c r="E357" t="n">
         <v>450</v>
@@ -11913,7 +11913,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>28868</v>
+        <v>28869</v>
       </c>
       <c r="E359" t="n">
         <v>1108</v>
@@ -12009,7 +12009,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="E362" t="n">
         <v>183</v>
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>10844</v>
+        <v>10846</v>
       </c>
       <c r="E363" t="n">
         <v>359</v>
@@ -12105,7 +12105,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>14249</v>
+        <v>14253</v>
       </c>
       <c r="E365" t="n">
         <v>600</v>
@@ -12169,7 +12169,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>11109</v>
+        <v>11112</v>
       </c>
       <c r="E367" t="n">
         <v>574</v>
@@ -12233,7 +12233,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>5524</v>
+        <v>5527</v>
       </c>
       <c r="E369" t="n">
         <v>251</v>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>28308</v>
+        <v>28313</v>
       </c>
       <c r="E372" t="n">
         <v>560</v>
@@ -12361,10 +12361,10 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>291207</v>
+        <v>291439</v>
       </c>
       <c r="E373" t="n">
-        <v>6651</v>
+        <v>6659</v>
       </c>
       <c r="F373" t="n">
         <v>401</v>
@@ -12393,7 +12393,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>29832</v>
+        <v>29833</v>
       </c>
       <c r="E374" t="n">
         <v>1116</v>
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>36085</v>
+        <v>36095</v>
       </c>
       <c r="E376" t="n">
         <v>826</v>
@@ -12553,7 +12553,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>18400</v>
+        <v>18401</v>
       </c>
       <c r="E379" t="n">
         <v>776</v>
@@ -12585,7 +12585,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E380" t="n">
         <v>197</v>
@@ -12809,7 +12809,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>10961</v>
+        <v>10970</v>
       </c>
       <c r="E387" t="n">
         <v>342</v>
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>22686</v>
+        <v>22698</v>
       </c>
       <c r="E388" t="n">
         <v>666</v>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>65528</v>
+        <v>65567</v>
       </c>
       <c r="E390" t="n">
         <v>2071</v>
@@ -12969,7 +12969,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>52539</v>
+        <v>52555</v>
       </c>
       <c r="E392" t="n">
         <v>1881</v>
@@ -13033,10 +13033,10 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>114668</v>
+        <v>114766</v>
       </c>
       <c r="E394" t="n">
-        <v>4046</v>
+        <v>4048</v>
       </c>
       <c r="F394" t="n">
         <v>192</v>
@@ -13097,7 +13097,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E396" t="n">
         <v>153</v>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1384575</v>
+        <v>1384681</v>
       </c>
       <c r="E397" t="n">
-        <v>48902</v>
+        <v>48905</v>
       </c>
       <c r="F397" t="n">
         <v>2000</v>
@@ -13193,7 +13193,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>19936</v>
+        <v>19947</v>
       </c>
       <c r="E399" t="n">
         <v>1118</v>
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="E400" t="n">
         <v>349</v>
@@ -13289,7 +13289,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="E402" t="n">
         <v>85</v>
@@ -13353,7 +13353,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>18244</v>
+        <v>18266</v>
       </c>
       <c r="E404" t="n">
         <v>681</v>
@@ -13385,7 +13385,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>25664</v>
+        <v>25689</v>
       </c>
       <c r="E405" t="n">
         <v>688</v>
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>38996</v>
+        <v>39032</v>
       </c>
       <c r="E406" t="n">
         <v>835</v>
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>65175</v>
+        <v>65224</v>
       </c>
       <c r="E407" t="n">
         <v>1781</v>
@@ -13481,10 +13481,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>70638</v>
+        <v>70688</v>
       </c>
       <c r="E408" t="n">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F408" t="n">
         <v>261</v>
@@ -13513,10 +13513,10 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>107039</v>
+        <v>107161</v>
       </c>
       <c r="E409" t="n">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="F409" t="n">
         <v>606</v>
@@ -13545,10 +13545,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>160488</v>
+        <v>160714</v>
       </c>
       <c r="E410" t="n">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="F410" t="n">
         <v>162</v>
@@ -13609,7 +13609,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>61028</v>
+        <v>61039</v>
       </c>
       <c r="E412" t="n">
         <v>3804</v>
@@ -13641,7 +13641,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="E413" t="n">
         <v>266</v>
@@ -13673,7 +13673,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>12341</v>
+        <v>12345</v>
       </c>
       <c r="E414" t="n">
         <v>456</v>
@@ -13705,7 +13705,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>10540</v>
+        <v>10541</v>
       </c>
       <c r="E415" t="n">
         <v>1133</v>
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>17248</v>
+        <v>17251</v>
       </c>
       <c r="E416" t="n">
         <v>1288</v>
@@ -13801,10 +13801,10 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>338360</v>
+        <v>338405</v>
       </c>
       <c r="E418" t="n">
-        <v>20908</v>
+        <v>20913</v>
       </c>
       <c r="F418" t="n">
         <v>617</v>
@@ -13833,7 +13833,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>39803</v>
+        <v>39808</v>
       </c>
       <c r="E419" t="n">
         <v>1381</v>
@@ -13961,10 +13961,10 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>115368</v>
+        <v>115435</v>
       </c>
       <c r="E423" t="n">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="F423" t="n">
         <v>99</v>
@@ -13993,10 +13993,10 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>315419</v>
+        <v>315552</v>
       </c>
       <c r="E424" t="n">
-        <v>17419</v>
+        <v>17427</v>
       </c>
       <c r="F424" t="n">
         <v>519</v>
@@ -14025,7 +14025,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>68459</v>
+        <v>68460</v>
       </c>
       <c r="E425" t="n">
         <v>1953</v>
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>27398</v>
+        <v>27402</v>
       </c>
       <c r="E426" t="n">
         <v>1214</v>
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>4957</v>
+        <v>4962</v>
       </c>
       <c r="E427" t="n">
         <v>301</v>
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>27759</v>
+        <v>27772</v>
       </c>
       <c r="E428" t="n">
         <v>925</v>
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>93026</v>
+        <v>93034</v>
       </c>
       <c r="E430" t="n">
         <v>2663</v>
@@ -14217,7 +14217,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>19739</v>
+        <v>19750</v>
       </c>
       <c r="E431" t="n">
         <v>583</v>
@@ -14249,10 +14249,10 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>108740</v>
+        <v>108755</v>
       </c>
       <c r="E432" t="n">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="F432" t="n">
         <v>583</v>
@@ -14281,7 +14281,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>29676</v>
+        <v>29680</v>
       </c>
       <c r="E433" t="n">
         <v>1967</v>
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E435" t="n">
         <v>148</v>
@@ -14409,7 +14409,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>8258</v>
+        <v>8260</v>
       </c>
       <c r="E437" t="n">
         <v>372</v>
@@ -14473,7 +14473,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>15734</v>
+        <v>15739</v>
       </c>
       <c r="E439" t="n">
         <v>557</v>
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>15936</v>
+        <v>15954</v>
       </c>
       <c r="E440" t="n">
         <v>469</v>
@@ -14537,7 +14537,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>100406</v>
+        <v>100412</v>
       </c>
       <c r="E441" t="n">
         <v>2935</v>
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>10086</v>
+        <v>10098</v>
       </c>
       <c r="E442" t="n">
         <v>377</v>
@@ -14601,10 +14601,10 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>55399</v>
+        <v>55409</v>
       </c>
       <c r="E443" t="n">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="F443" t="n">
         <v>223</v>
@@ -14665,10 +14665,10 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>65730</v>
+        <v>65774</v>
       </c>
       <c r="E445" t="n">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="F445" t="n">
         <v>227</v>
@@ -14697,7 +14697,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>6151</v>
+        <v>6152</v>
       </c>
       <c r="E446" t="n">
         <v>169</v>
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="E448" t="n">
         <v>258</v>
@@ -14793,7 +14793,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>45491</v>
+        <v>45499</v>
       </c>
       <c r="E449" t="n">
         <v>1736</v>
@@ -14857,10 +14857,10 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E451" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F451" t="n">
         <v>13</v>
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E452" t="n">
         <v>72</v>
@@ -14953,7 +14953,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>11600</v>
+        <v>11604</v>
       </c>
       <c r="E454" t="n">
         <v>577</v>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="E455" t="n">
         <v>113</v>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="E456" t="n">
         <v>94</v>
@@ -15049,7 +15049,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>4138</v>
+        <v>4141</v>
       </c>
       <c r="E457" t="n">
         <v>94</v>
@@ -15113,10 +15113,10 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>49535</v>
+        <v>49545</v>
       </c>
       <c r="E459" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F459" t="n">
         <v>109</v>
@@ -15145,7 +15145,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>14269</v>
+        <v>14277</v>
       </c>
       <c r="E460" t="n">
         <v>381</v>
@@ -15177,7 +15177,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>28785</v>
+        <v>28786</v>
       </c>
       <c r="E461" t="n">
         <v>1369</v>
@@ -15209,7 +15209,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E462" t="n">
         <v>107</v>
@@ -15241,7 +15241,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>147063</v>
+        <v>147089</v>
       </c>
       <c r="E463" t="n">
         <v>5643</v>
@@ -15273,7 +15273,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>34809</v>
+        <v>34818</v>
       </c>
       <c r="E464" t="n">
         <v>1171</v>
@@ -15305,7 +15305,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>12524</v>
+        <v>12525</v>
       </c>
       <c r="E465" t="n">
         <v>342</v>
@@ -15337,7 +15337,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>17187</v>
+        <v>17195</v>
       </c>
       <c r="E466" t="n">
         <v>514</v>
@@ -15401,10 +15401,10 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>23795</v>
+        <v>23804</v>
       </c>
       <c r="E468" t="n">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F468" t="n">
         <v>89</v>
@@ -15433,7 +15433,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>11480</v>
+        <v>11482</v>
       </c>
       <c r="E469" t="n">
         <v>477</v>
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>6840</v>
+        <v>6842</v>
       </c>
       <c r="E470" t="n">
         <v>141</v>
@@ -15561,7 +15561,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>25508</v>
+        <v>25509</v>
       </c>
       <c r="E473" t="n">
         <v>1064</v>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>19961</v>
+        <v>19967</v>
       </c>
       <c r="E475" t="n">
         <v>543</v>
@@ -15657,10 +15657,10 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>46045</v>
+        <v>46050</v>
       </c>
       <c r="E476" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F476" t="n">
         <v>336</v>
@@ -15689,7 +15689,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>27954</v>
+        <v>27955</v>
       </c>
       <c r="E477" t="n">
         <v>760</v>
@@ -15817,7 +15817,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="E481" t="n">
         <v>179</v>
@@ -15881,7 +15881,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E483" t="n">
         <v>35</v>
@@ -15913,7 +15913,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>15515</v>
+        <v>15529</v>
       </c>
       <c r="E484" t="n">
         <v>323</v>
@@ -16041,7 +16041,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E488" t="n">
         <v>106</v>
@@ -16105,10 +16105,10 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>17102</v>
+        <v>17110</v>
       </c>
       <c r="E490" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F490" t="n">
         <v>54</v>
@@ -16169,7 +16169,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>6320</v>
+        <v>6321</v>
       </c>
       <c r="E492" t="n">
         <v>197</v>
@@ -16201,7 +16201,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>8418</v>
+        <v>8420</v>
       </c>
       <c r="E493" t="n">
         <v>191</v>
@@ -16233,7 +16233,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>18579</v>
+        <v>18584</v>
       </c>
       <c r="E494" t="n">
         <v>290</v>
@@ -16265,13 +16265,13 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>3869</v>
+        <v>4207</v>
       </c>
       <c r="E495" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F495" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G495" s="2" t="n">
         <v>45020</v>
@@ -16297,10 +16297,10 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>20967</v>
+        <v>21470</v>
       </c>
       <c r="E496" t="n">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="F496" t="n">
         <v>71</v>
@@ -16329,10 +16329,10 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5803</v>
+        <v>5885</v>
       </c>
       <c r="E497" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F497" t="n">
         <v>15</v>
@@ -16361,10 +16361,10 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>33147</v>
+        <v>33670</v>
       </c>
       <c r="E498" t="n">
-        <v>1378</v>
+        <v>1408</v>
       </c>
       <c r="F498" t="n">
         <v>115</v>
@@ -16393,10 +16393,10 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>9433</v>
+        <v>9469</v>
       </c>
       <c r="E499" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F499" t="n">
         <v>26</v>
@@ -16425,7 +16425,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>10159</v>
+        <v>10167</v>
       </c>
       <c r="E500" t="n">
         <v>382</v>
@@ -16457,10 +16457,10 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>8599</v>
+        <v>8701</v>
       </c>
       <c r="E501" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F501" t="n">
         <v>23</v>
@@ -16489,10 +16489,10 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>10647</v>
+        <v>10717</v>
       </c>
       <c r="E502" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F502" t="n">
         <v>35</v>
@@ -16521,13 +16521,13 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>271347</v>
+        <v>276263</v>
       </c>
       <c r="E503" t="n">
-        <v>5477</v>
+        <v>5546</v>
       </c>
       <c r="F503" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G503" s="2" t="n">
         <v>44971</v>
@@ -16553,13 +16553,13 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>224606</v>
+        <v>226447</v>
       </c>
       <c r="E504" t="n">
-        <v>13348</v>
+        <v>13397</v>
       </c>
       <c r="F504" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G504" s="2" t="n">
         <v>44964</v>
@@ -16585,13 +16585,13 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>240082</v>
+        <v>242975</v>
       </c>
       <c r="E505" t="n">
-        <v>11293</v>
+        <v>11401</v>
       </c>
       <c r="F505" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G505" s="2" t="n">
         <v>44957</v>
@@ -16617,10 +16617,10 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>13418</v>
+        <v>13450</v>
       </c>
       <c r="E506" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F506" t="n">
         <v>20</v>
@@ -16649,10 +16649,10 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>21031</v>
+        <v>21098</v>
       </c>
       <c r="E507" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F507" t="n">
         <v>98</v>
@@ -16681,7 +16681,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>15500</v>
+        <v>15532</v>
       </c>
       <c r="E508" t="n">
         <v>526</v>
@@ -16713,10 +16713,10 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>26118</v>
+        <v>26377</v>
       </c>
       <c r="E509" t="n">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="F509" t="n">
         <v>26</v>
@@ -16745,10 +16745,10 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>41422</v>
+        <v>41514</v>
       </c>
       <c r="E510" t="n">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="F510" t="n">
         <v>216</v>
@@ -16777,10 +16777,10 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>13395</v>
+        <v>13503</v>
       </c>
       <c r="E511" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F511" t="n">
         <v>35</v>
@@ -16809,10 +16809,10 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>4404</v>
+        <v>4413</v>
       </c>
       <c r="E512" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F512" t="n">
         <v>10</v>
@@ -16841,13 +16841,13 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>123855</v>
+        <v>124098</v>
       </c>
       <c r="E513" t="n">
-        <v>7118</v>
+        <v>7128</v>
       </c>
       <c r="F513" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G513" s="2" t="n">
         <v>44915</v>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>4847</v>
+        <v>4854</v>
       </c>
       <c r="E514" t="n">
         <v>163</v>
@@ -16905,10 +16905,10 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>6756</v>
+        <v>6809</v>
       </c>
       <c r="E515" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F515" t="n">
         <v>18</v>
@@ -16937,10 +16937,10 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>7974</v>
+        <v>8031</v>
       </c>
       <c r="E516" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F516" t="n">
         <v>18</v>
@@ -16969,10 +16969,10 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>6373</v>
+        <v>6429</v>
       </c>
       <c r="E517" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F517" t="n">
         <v>14</v>
@@ -17001,10 +17001,10 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>7788</v>
+        <v>7860</v>
       </c>
       <c r="E518" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F518" t="n">
         <v>15</v>
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>5886</v>
+        <v>5894</v>
       </c>
       <c r="E519" t="n">
         <v>197</v>
@@ -17065,10 +17065,10 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>6851</v>
+        <v>6914</v>
       </c>
       <c r="E520" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F520" t="n">
         <v>20</v>
@@ -17097,10 +17097,10 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>7224</v>
+        <v>7293</v>
       </c>
       <c r="E521" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F521" t="n">
         <v>13</v>
@@ -17129,7 +17129,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>13831</v>
+        <v>13941</v>
       </c>
       <c r="E522" t="n">
         <v>457</v>
@@ -17161,7 +17161,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>5569</v>
+        <v>5570</v>
       </c>
       <c r="E523" t="n">
         <v>183</v>
@@ -17193,10 +17193,10 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>15096</v>
+        <v>15231</v>
       </c>
       <c r="E524" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F524" t="n">
         <v>32</v>
@@ -17257,10 +17257,10 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>36052</v>
+        <v>36403</v>
       </c>
       <c r="E526" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="F526" t="n">
         <v>56</v>
@@ -17289,7 +17289,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>8214</v>
+        <v>8221</v>
       </c>
       <c r="E527" t="n">
         <v>299</v>
@@ -17321,10 +17321,10 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>6473</v>
+        <v>6478</v>
       </c>
       <c r="E528" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F528" t="n">
         <v>31</v>
@@ -17353,7 +17353,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>13822</v>
+        <v>13829</v>
       </c>
       <c r="E529" t="n">
         <v>634</v>
@@ -17385,7 +17385,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>6509</v>
+        <v>6512</v>
       </c>
       <c r="E530" t="n">
         <v>213</v>
@@ -17417,10 +17417,10 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>92018</v>
+        <v>92656</v>
       </c>
       <c r="E531" t="n">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="F531" t="n">
         <v>182</v>
@@ -17449,10 +17449,10 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>18291</v>
+        <v>18405</v>
       </c>
       <c r="E532" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F532" t="n">
         <v>31</v>
@@ -17481,10 +17481,10 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>39366</v>
+        <v>39400</v>
       </c>
       <c r="E533" t="n">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="F533" t="n">
         <v>127</v>
@@ -17513,10 +17513,10 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>15150</v>
+        <v>15249</v>
       </c>
       <c r="E534" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F534" t="n">
         <v>24</v>
@@ -17545,10 +17545,10 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>19615</v>
+        <v>19801</v>
       </c>
       <c r="E535" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F535" t="n">
         <v>31</v>
@@ -17577,10 +17577,10 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>66628</v>
+        <v>66748</v>
       </c>
       <c r="E536" t="n">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="F536" t="n">
         <v>76</v>
@@ -17609,7 +17609,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>6598</v>
+        <v>6600</v>
       </c>
       <c r="E537" t="n">
         <v>242</v>
@@ -17641,10 +17641,10 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>16627</v>
+        <v>16659</v>
       </c>
       <c r="E538" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F538" t="n">
         <v>94</v>
@@ -17673,10 +17673,10 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>25180</v>
+        <v>25335</v>
       </c>
       <c r="E539" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F539" t="n">
         <v>35</v>
@@ -17705,7 +17705,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>16044</v>
+        <v>16053</v>
       </c>
       <c r="E540" t="n">
         <v>748</v>
@@ -17769,10 +17769,10 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>28372</v>
+        <v>28563</v>
       </c>
       <c r="E542" t="n">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F542" t="n">
         <v>53</v>
@@ -17801,10 +17801,10 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>21431</v>
+        <v>21434</v>
       </c>
       <c r="E543" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F543" t="n">
         <v>126</v>
@@ -17833,10 +17833,10 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>33291</v>
+        <v>33503</v>
       </c>
       <c r="E544" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F544" t="n">
         <v>35</v>
@@ -17865,10 +17865,10 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>15434</v>
+        <v>15469</v>
       </c>
       <c r="E545" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F545" t="n">
         <v>66</v>
@@ -17897,7 +17897,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>24078</v>
+        <v>24107</v>
       </c>
       <c r="E546" t="n">
         <v>700</v>
@@ -17929,7 +17929,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>42839</v>
+        <v>42855</v>
       </c>
       <c r="E547" t="n">
         <v>1608</v>
@@ -17961,13 +17961,13 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>47585</v>
+        <v>47931</v>
       </c>
       <c r="E548" t="n">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="F548" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G548" s="2" t="n">
         <v>44726</v>
@@ -17993,10 +17993,10 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>23202</v>
+        <v>23293</v>
       </c>
       <c r="E549" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F549" t="n">
         <v>68</v>
@@ -18025,7 +18025,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>14516</v>
+        <v>14539</v>
       </c>
       <c r="E550" t="n">
         <v>630</v>
@@ -18057,10 +18057,10 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>79583</v>
+        <v>80086</v>
       </c>
       <c r="E551" t="n">
-        <v>1962</v>
+        <v>1979</v>
       </c>
       <c r="F551" t="n">
         <v>139</v>
@@ -18089,10 +18089,10 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>79364</v>
+        <v>79508</v>
       </c>
       <c r="E552" t="n">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="F552" t="n">
         <v>226</v>
@@ -18121,10 +18121,10 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>31590</v>
+        <v>31600</v>
       </c>
       <c r="E553" t="n">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="F553" t="n">
         <v>152</v>
@@ -18153,7 +18153,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>39780</v>
+        <v>39804</v>
       </c>
       <c r="E554" t="n">
         <v>1302</v>
@@ -18185,10 +18185,10 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>291491</v>
+        <v>292185</v>
       </c>
       <c r="E555" t="n">
-        <v>9135</v>
+        <v>9155</v>
       </c>
       <c r="F555" t="n">
         <v>179</v>
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>11290</v>
+        <v>11293</v>
       </c>
       <c r="E556" t="n">
         <v>316</v>
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>30026</v>
+        <v>30039</v>
       </c>
       <c r="E558" t="n">
         <v>1306</v>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>15654</v>
+        <v>15662</v>
       </c>
       <c r="E559" t="n">
         <v>616</v>
@@ -18345,7 +18345,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="E560" t="n">
         <v>264</v>
@@ -18377,10 +18377,10 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>258627</v>
+        <v>259971</v>
       </c>
       <c r="E561" t="n">
-        <v>6672</v>
+        <v>6696</v>
       </c>
       <c r="F561" t="n">
         <v>504</v>
@@ -18409,7 +18409,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>19876</v>
+        <v>19885</v>
       </c>
       <c r="E562" t="n">
         <v>768</v>
@@ -18441,10 +18441,10 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>172038</v>
+        <v>172733</v>
       </c>
       <c r="E563" t="n">
-        <v>4399</v>
+        <v>4415</v>
       </c>
       <c r="F563" t="n">
         <v>174</v>
@@ -18473,10 +18473,10 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>41059</v>
+        <v>41118</v>
       </c>
       <c r="E564" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F564" t="n">
         <v>113</v>
@@ -18505,7 +18505,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>25051</v>
+        <v>25059</v>
       </c>
       <c r="E565" t="n">
         <v>995</v>
@@ -18537,10 +18537,10 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>86028</v>
+        <v>86126</v>
       </c>
       <c r="E566" t="n">
-        <v>4749</v>
+        <v>4752</v>
       </c>
       <c r="F566" t="n">
         <v>196</v>
@@ -18569,7 +18569,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>19447</v>
+        <v>19453</v>
       </c>
       <c r="E567" t="n">
         <v>699</v>
@@ -18601,10 +18601,10 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>34358</v>
+        <v>34524</v>
       </c>
       <c r="E568" t="n">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F568" t="n">
         <v>36</v>
@@ -18633,7 +18633,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>21735</v>
+        <v>21737</v>
       </c>
       <c r="E569" t="n">
         <v>829</v>
@@ -18665,10 +18665,10 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>45725</v>
+        <v>45942</v>
       </c>
       <c r="E570" t="n">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="F570" t="n">
         <v>73</v>
@@ -18729,10 +18729,10 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>487250</v>
+        <v>487332</v>
       </c>
       <c r="E572" t="n">
-        <v>22061</v>
+        <v>22062</v>
       </c>
       <c r="F572" t="n">
         <v>644</v>
@@ -18761,10 +18761,10 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>55262</v>
+        <v>55536</v>
       </c>
       <c r="E573" t="n">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="F573" t="n">
         <v>71</v>
@@ -18793,10 +18793,10 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>92625</v>
+        <v>93111</v>
       </c>
       <c r="E574" t="n">
-        <v>2638</v>
+        <v>2649</v>
       </c>
       <c r="F574" t="n">
         <v>192</v>
@@ -18825,10 +18825,10 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>210002</v>
+        <v>210830</v>
       </c>
       <c r="E575" t="n">
-        <v>4584</v>
+        <v>4596</v>
       </c>
       <c r="F575" t="n">
         <v>151</v>
@@ -18857,10 +18857,10 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>101577</v>
+        <v>101929</v>
       </c>
       <c r="E576" t="n">
-        <v>2356</v>
+        <v>2365</v>
       </c>
       <c r="F576" t="n">
         <v>236</v>
@@ -18889,10 +18889,10 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>46094</v>
+        <v>46260</v>
       </c>
       <c r="E577" t="n">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="F577" t="n">
         <v>40</v>
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>16402</v>
+        <v>16405</v>
       </c>
       <c r="E578" t="n">
         <v>894</v>
@@ -18953,7 +18953,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>9535</v>
+        <v>9539</v>
       </c>
       <c r="E579" t="n">
         <v>842</v>
@@ -18985,7 +18985,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>10801</v>
+        <v>10802</v>
       </c>
       <c r="E580" t="n">
         <v>336</v>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>16429</v>
+        <v>16435</v>
       </c>
       <c r="E581" t="n">
         <v>841</v>
@@ -19049,10 +19049,10 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>65171</v>
+        <v>65388</v>
       </c>
       <c r="E582" t="n">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="F582" t="n">
         <v>112</v>
@@ -19081,10 +19081,10 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>78547</v>
+        <v>78815</v>
       </c>
       <c r="E583" t="n">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="F583" t="n">
         <v>57</v>
@@ -19113,10 +19113,10 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>279625</v>
+        <v>280499</v>
       </c>
       <c r="E584" t="n">
-        <v>7488</v>
+        <v>7511</v>
       </c>
       <c r="F584" t="n">
         <v>243</v>
@@ -19145,7 +19145,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>16847</v>
+        <v>16849</v>
       </c>
       <c r="E585" t="n">
         <v>709</v>
@@ -19209,13 +19209,13 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>132091</v>
+        <v>132385</v>
       </c>
       <c r="E587" t="n">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="F587" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G587" s="2" t="n">
         <v>44432</v>
@@ -19241,7 +19241,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>74973</v>
+        <v>75005</v>
       </c>
       <c r="E588" t="n">
         <v>2064</v>
@@ -19305,7 +19305,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>139684</v>
+        <v>139702</v>
       </c>
       <c r="E590" t="n">
         <v>4381</v>
@@ -19337,10 +19337,10 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>47978</v>
+        <v>48058</v>
       </c>
       <c r="E591" t="n">
-        <v>2910</v>
+        <v>2917</v>
       </c>
       <c r="F591" t="n">
         <v>206</v>
@@ -19369,10 +19369,10 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>128291</v>
+        <v>128298</v>
       </c>
       <c r="E592" t="n">
-        <v>5585</v>
+        <v>5586</v>
       </c>
       <c r="F592" t="n">
         <v>363</v>
@@ -19401,10 +19401,10 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>213169</v>
+        <v>213865</v>
       </c>
       <c r="E593" t="n">
-        <v>6099</v>
+        <v>6105</v>
       </c>
       <c r="F593" t="n">
         <v>433</v>
@@ -19433,10 +19433,10 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>105151</v>
+        <v>105277</v>
       </c>
       <c r="E594" t="n">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="F594" t="n">
         <v>356</v>
@@ -19465,10 +19465,10 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>403463</v>
+        <v>403748</v>
       </c>
       <c r="E595" t="n">
-        <v>18090</v>
+        <v>18099</v>
       </c>
       <c r="F595" t="n">
         <v>571</v>
@@ -19497,7 +19497,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>6087</v>
+        <v>6088</v>
       </c>
       <c r="E596" t="n">
         <v>240</v>
@@ -19529,10 +19529,10 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>25725</v>
+        <v>25747</v>
       </c>
       <c r="E597" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F597" t="n">
         <v>88</v>
@@ -19561,13 +19561,13 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>201861</v>
+        <v>202475</v>
       </c>
       <c r="E598" t="n">
-        <v>4701</v>
+        <v>4707</v>
       </c>
       <c r="F598" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G598" s="2" t="n">
         <v>44341</v>
@@ -19593,13 +19593,13 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>254119</v>
+        <v>254425</v>
       </c>
       <c r="E599" t="n">
-        <v>4378</v>
+        <v>4383</v>
       </c>
       <c r="F599" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G599" s="2" t="n">
         <v>44334</v>
@@ -19625,7 +19625,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E600" t="n">
         <v>194</v>
@@ -19657,13 +19657,13 @@
         </is>
       </c>
       <c r="D601" t="n">
-        <v>1105014</v>
+        <v>1107031</v>
       </c>
       <c r="E601" t="n">
-        <v>22603</v>
+        <v>22629</v>
       </c>
       <c r="F601" t="n">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="G601" s="2" t="n">
         <v>44320</v>
@@ -19689,10 +19689,10 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>170190</v>
+        <v>170585</v>
       </c>
       <c r="E602" t="n">
-        <v>4309</v>
+        <v>4321</v>
       </c>
       <c r="F602" t="n">
         <v>152</v>
@@ -19753,10 +19753,10 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>259840</v>
+        <v>260189</v>
       </c>
       <c r="E604" t="n">
-        <v>9841</v>
+        <v>9849</v>
       </c>
       <c r="F604" t="n">
         <v>562</v>
@@ -19785,10 +19785,10 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>21841</v>
+        <v>21848</v>
       </c>
       <c r="E605" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F605" t="n">
         <v>86</v>
@@ -19817,10 +19817,10 @@
         </is>
       </c>
       <c r="D606" t="n">
-        <v>134046</v>
+        <v>134205</v>
       </c>
       <c r="E606" t="n">
-        <v>3244</v>
+        <v>3251</v>
       </c>
       <c r="F606" t="n">
         <v>280</v>
@@ -19849,7 +19849,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>36188</v>
+        <v>36224</v>
       </c>
       <c r="E607" t="n">
         <v>1264</v>
@@ -19881,7 +19881,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>15498</v>
+        <v>15510</v>
       </c>
       <c r="E608" t="n">
         <v>463</v>
@@ -19913,10 +19913,10 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>172261</v>
+        <v>172632</v>
       </c>
       <c r="E609" t="n">
-        <v>3653</v>
+        <v>3664</v>
       </c>
       <c r="F609" t="n">
         <v>108</v>
@@ -19945,10 +19945,10 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>335759</v>
+        <v>335891</v>
       </c>
       <c r="E610" t="n">
-        <v>10706</v>
+        <v>10707</v>
       </c>
       <c r="F610" t="n">
         <v>1161</v>
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>51461</v>
+        <v>51463</v>
       </c>
       <c r="E611" t="n">
         <v>2393</v>
@@ -20009,7 +20009,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>19021</v>
+        <v>19026</v>
       </c>
       <c r="E612" t="n">
         <v>496</v>
@@ -20041,10 +20041,10 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>60364</v>
+        <v>60473</v>
       </c>
       <c r="E613" t="n">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="F613" t="n">
         <v>82</v>
@@ -20073,7 +20073,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>18235</v>
+        <v>18246</v>
       </c>
       <c r="E614" t="n">
         <v>356</v>
@@ -20105,10 +20105,10 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>175717</v>
+        <v>175852</v>
       </c>
       <c r="E615" t="n">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="F615" t="n">
         <v>360</v>
@@ -20137,13 +20137,13 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>67693</v>
+        <v>67940</v>
       </c>
       <c r="E616" t="n">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="F616" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G616" s="2" t="n">
         <v>44231</v>
@@ -20169,10 +20169,10 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>110360</v>
+        <v>110683</v>
       </c>
       <c r="E617" t="n">
-        <v>2721</v>
+        <v>2732</v>
       </c>
       <c r="F617" t="n">
         <v>100</v>
@@ -20233,10 +20233,10 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>88775</v>
+        <v>88849</v>
       </c>
       <c r="E619" t="n">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="F619" t="n">
         <v>285</v>
@@ -20265,10 +20265,10 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>123862</v>
+        <v>123946</v>
       </c>
       <c r="E620" t="n">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="F620" t="n">
         <v>243</v>
@@ -20297,7 +20297,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>39684</v>
+        <v>39709</v>
       </c>
       <c r="E621" t="n">
         <v>1186</v>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>19957</v>
+        <v>19968</v>
       </c>
       <c r="E622" t="n">
         <v>1055</v>
@@ -20361,7 +20361,7 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>13479</v>
+        <v>13488</v>
       </c>
       <c r="E623" t="n">
         <v>449</v>
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>31576</v>
+        <v>31652</v>
       </c>
       <c r="E624" t="n">
         <v>1050</v>
@@ -20457,7 +20457,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>37272</v>
+        <v>37294</v>
       </c>
       <c r="E626" t="n">
         <v>1101</v>
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>39847</v>
+        <v>39881</v>
       </c>
       <c r="E628" t="n">
         <v>1380</v>
@@ -20553,10 +20553,10 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>58316</v>
+        <v>58401</v>
       </c>
       <c r="E629" t="n">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="F629" t="n">
         <v>127</v>
@@ -20585,7 +20585,7 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E630" t="n">
         <v>91</v>
@@ -20617,10 +20617,10 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>155185</v>
+        <v>155595</v>
       </c>
       <c r="E631" t="n">
-        <v>2686</v>
+        <v>2695</v>
       </c>
       <c r="F631" t="n">
         <v>129</v>
@@ -20649,10 +20649,10 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>21326</v>
+        <v>21341</v>
       </c>
       <c r="E632" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F632" t="n">
         <v>188</v>
@@ -20681,10 +20681,10 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>111800</v>
+        <v>112110</v>
       </c>
       <c r="E633" t="n">
-        <v>3191</v>
+        <v>3196</v>
       </c>
       <c r="F633" t="n">
         <v>145</v>
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>22183</v>
+        <v>22197</v>
       </c>
       <c r="E635" t="n">
         <v>815</v>
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>13348</v>
+        <v>13354</v>
       </c>
       <c r="E636" t="n">
         <v>526</v>
@@ -20809,10 +20809,10 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>145297</v>
+        <v>145733</v>
       </c>
       <c r="E637" t="n">
-        <v>6310</v>
+        <v>6323</v>
       </c>
       <c r="F637" t="n">
         <v>177</v>
@@ -20873,7 +20873,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>21507</v>
+        <v>21513</v>
       </c>
       <c r="E639" t="n">
         <v>585</v>
@@ -20905,7 +20905,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>10864</v>
+        <v>10869</v>
       </c>
       <c r="E640" t="n">
         <v>331</v>
@@ -20937,7 +20937,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>69958</v>
+        <v>69983</v>
       </c>
       <c r="E641" t="n">
         <v>3403</v>
@@ -21001,7 +21001,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>12561</v>
+        <v>12570</v>
       </c>
       <c r="E643" t="n">
         <v>530</v>
@@ -21033,10 +21033,10 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>121176</v>
+        <v>121261</v>
       </c>
       <c r="E644" t="n">
-        <v>3955</v>
+        <v>3959</v>
       </c>
       <c r="F644" t="n">
         <v>274</v>
@@ -21065,10 +21065,10 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>166898</v>
+        <v>166974</v>
       </c>
       <c r="E645" t="n">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="F645" t="n">
         <v>972</v>
@@ -21129,10 +21129,10 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>95397</v>
+        <v>95430</v>
       </c>
       <c r="E647" t="n">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="F647" t="n">
         <v>274</v>
@@ -21193,7 +21193,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>74450</v>
+        <v>74451</v>
       </c>
       <c r="E649" t="n">
         <v>2783</v>
@@ -21257,10 +21257,10 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>41990</v>
+        <v>42024</v>
       </c>
       <c r="E651" t="n">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F651" t="n">
         <v>694</v>
@@ -21289,7 +21289,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>13970</v>
+        <v>13974</v>
       </c>
       <c r="E652" t="n">
         <v>589</v>
@@ -21321,10 +21321,10 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>404575</v>
+        <v>404658</v>
       </c>
       <c r="E653" t="n">
-        <v>11879</v>
+        <v>11882</v>
       </c>
       <c r="F653" t="n">
         <v>3758</v>
@@ -21353,7 +21353,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>42281</v>
+        <v>42302</v>
       </c>
       <c r="E654" t="n">
         <v>1298</v>
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>17911</v>
+        <v>17923</v>
       </c>
       <c r="E655" t="n">
         <v>624</v>
@@ -21417,7 +21417,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>10607</v>
+        <v>10614</v>
       </c>
       <c r="E656" t="n">
         <v>192</v>
@@ -21481,10 +21481,10 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>125525</v>
+        <v>125559</v>
       </c>
       <c r="E658" t="n">
-        <v>4565</v>
+        <v>4568</v>
       </c>
       <c r="F658" t="n">
         <v>273</v>
@@ -21513,10 +21513,10 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>867626</v>
+        <v>868241</v>
       </c>
       <c r="E659" t="n">
-        <v>18789</v>
+        <v>18796</v>
       </c>
       <c r="F659" t="n">
         <v>1038</v>
@@ -21545,7 +21545,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>28550</v>
+        <v>28561</v>
       </c>
       <c r="E660" t="n">
         <v>510</v>
@@ -21577,10 +21577,10 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>699793</v>
+        <v>700730</v>
       </c>
       <c r="E661" t="n">
-        <v>14539</v>
+        <v>14564</v>
       </c>
       <c r="F661" t="n">
         <v>413</v>
@@ -21641,7 +21641,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>49624</v>
+        <v>49641</v>
       </c>
       <c r="E663" t="n">
         <v>1304</v>
@@ -21673,10 +21673,10 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>693130</v>
+        <v>693330</v>
       </c>
       <c r="E664" t="n">
-        <v>18010</v>
+        <v>18015</v>
       </c>
       <c r="F664" t="n">
         <v>559</v>
@@ -21705,10 +21705,10 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>54162</v>
+        <v>54174</v>
       </c>
       <c r="E665" t="n">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F665" t="n">
         <v>94</v>
@@ -21737,10 +21737,10 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>169456</v>
+        <v>169524</v>
       </c>
       <c r="E666" t="n">
-        <v>8934</v>
+        <v>8936</v>
       </c>
       <c r="F666" t="n">
         <v>409</v>
@@ -21769,13 +21769,13 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>698020</v>
+        <v>698468</v>
       </c>
       <c r="E667" t="n">
-        <v>22189</v>
+        <v>22201</v>
       </c>
       <c r="F667" t="n">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G667" s="2" t="n">
         <v>43992</v>
@@ -21801,10 +21801,10 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>51749</v>
+        <v>51986</v>
       </c>
       <c r="E668" t="n">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="F668" t="n">
         <v>59</v>
@@ -21833,7 +21833,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>8552</v>
+        <v>8555</v>
       </c>
       <c r="E669" t="n">
         <v>233</v>
@@ -21865,10 +21865,10 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>20901</v>
+        <v>20920</v>
       </c>
       <c r="E670" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F670" t="n">
         <v>27</v>
@@ -21897,10 +21897,10 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>52724</v>
+        <v>52799</v>
       </c>
       <c r="E671" t="n">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F671" t="n">
         <v>31</v>
@@ -21929,10 +21929,10 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>93473</v>
+        <v>93538</v>
       </c>
       <c r="E672" t="n">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="F672" t="n">
         <v>97</v>
@@ -21961,10 +21961,10 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>67254</v>
+        <v>67270</v>
       </c>
       <c r="E673" t="n">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="F673" t="n">
         <v>65</v>
@@ -21993,10 +21993,10 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>14577</v>
+        <v>14580</v>
       </c>
       <c r="E674" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F674" t="n">
         <v>50</v>
@@ -22025,10 +22025,10 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>51568</v>
+        <v>51798</v>
       </c>
       <c r="E675" t="n">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="F675" t="n">
         <v>87</v>
@@ -22057,10 +22057,10 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>61921</v>
+        <v>62208</v>
       </c>
       <c r="E676" t="n">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="F676" t="n">
         <v>48</v>
@@ -22089,10 +22089,10 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>128287</v>
+        <v>128708</v>
       </c>
       <c r="E677" t="n">
-        <v>3620</v>
+        <v>3632</v>
       </c>
       <c r="F677" t="n">
         <v>256</v>
@@ -22121,10 +22121,10 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>101232</v>
+        <v>101621</v>
       </c>
       <c r="E678" t="n">
-        <v>2375</v>
+        <v>2384</v>
       </c>
       <c r="F678" t="n">
         <v>91</v>
@@ -22153,13 +22153,13 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>205600</v>
+        <v>206373</v>
       </c>
       <c r="E679" t="n">
-        <v>4072</v>
+        <v>4084</v>
       </c>
       <c r="F679" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G679" s="2" t="n">
         <v>43909</v>
@@ -22185,10 +22185,10 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>122135</v>
+        <v>122154</v>
       </c>
       <c r="E680" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="F680" t="n">
         <v>270</v>
@@ -22217,10 +22217,10 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>117914</v>
+        <v>118450</v>
       </c>
       <c r="E681" t="n">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="F681" t="n">
         <v>167</v>
@@ -22249,10 +22249,10 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>122778</v>
+        <v>123371</v>
       </c>
       <c r="E682" t="n">
-        <v>2678</v>
+        <v>2686</v>
       </c>
       <c r="F682" t="n">
         <v>82</v>
@@ -22281,10 +22281,10 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>180922</v>
+        <v>181755</v>
       </c>
       <c r="E683" t="n">
-        <v>3252</v>
+        <v>3261</v>
       </c>
       <c r="F683" t="n">
         <v>134</v>
@@ -22313,13 +22313,13 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>590923</v>
+        <v>593043</v>
       </c>
       <c r="E684" t="n">
-        <v>9390</v>
+        <v>9408</v>
       </c>
       <c r="F684" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G684" s="2" t="n">
         <v>43891</v>
@@ -22345,7 +22345,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>24241</v>
+        <v>24248</v>
       </c>
       <c r="E685" t="n">
         <v>826</v>
@@ -22377,10 +22377,10 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>21859</v>
+        <v>21871</v>
       </c>
       <c r="E686" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F686" t="n">
         <v>43</v>
@@ -22441,7 +22441,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>11022</v>
+        <v>11030</v>
       </c>
       <c r="E688" t="n">
         <v>503</v>
@@ -22473,7 +22473,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>46468</v>
+        <v>46483</v>
       </c>
       <c r="E689" t="n">
         <v>1711</v>
@@ -22505,10 +22505,10 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>101907</v>
+        <v>101990</v>
       </c>
       <c r="E690" t="n">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="F690" t="n">
         <v>93</v>
@@ -22537,10 +22537,10 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>60729</v>
+        <v>60762</v>
       </c>
       <c r="E691" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F691" t="n">
         <v>64</v>
@@ -22569,7 +22569,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>13364</v>
+        <v>13374</v>
       </c>
       <c r="E692" t="n">
         <v>368</v>
@@ -22601,10 +22601,10 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>57235</v>
+        <v>57268</v>
       </c>
       <c r="E693" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F693" t="n">
         <v>224</v>
@@ -22633,7 +22633,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>7133</v>
+        <v>7138</v>
       </c>
       <c r="E694" t="n">
         <v>272</v>
@@ -22665,10 +22665,10 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>25938</v>
+        <v>25949</v>
       </c>
       <c r="E695" t="n">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F695" t="n">
         <v>137</v>
@@ -22697,13 +22697,13 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>76072</v>
+        <v>86325</v>
       </c>
       <c r="E696" t="n">
-        <v>4438</v>
+        <v>4835</v>
       </c>
       <c r="F696" t="n">
-        <v>813</v>
+        <v>958</v>
       </c>
       <c r="G696" s="2" t="n">
         <v>45017</v>
@@ -22729,10 +22729,10 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>12593</v>
+        <v>12879</v>
       </c>
       <c r="E697" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F697" t="n">
         <v>78</v>
@@ -22761,13 +22761,13 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>15027</v>
+        <v>15510</v>
       </c>
       <c r="E698" t="n">
-        <v>1211</v>
+        <v>1252</v>
       </c>
       <c r="F698" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G698" s="2" t="n">
         <v>44997</v>
@@ -22793,13 +22793,13 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>882405</v>
+        <v>922907</v>
       </c>
       <c r="E699" t="n">
-        <v>37560</v>
+        <v>38708</v>
       </c>
       <c r="F699" t="n">
-        <v>1130</v>
+        <v>1164</v>
       </c>
       <c r="G699" s="2" t="n">
         <v>44987</v>
@@ -22825,10 +22825,10 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>38262</v>
+        <v>38457</v>
       </c>
       <c r="E700" t="n">
-        <v>2435</v>
+        <v>2444</v>
       </c>
       <c r="F700" t="n">
         <v>89</v>
@@ -22857,13 +22857,13 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>448951</v>
+        <v>452080</v>
       </c>
       <c r="E701" t="n">
-        <v>23408</v>
+        <v>23548</v>
       </c>
       <c r="F701" t="n">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="G701" s="2" t="n">
         <v>44954</v>
@@ -22889,13 +22889,13 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>86185</v>
+        <v>87458</v>
       </c>
       <c r="E702" t="n">
-        <v>5255</v>
+        <v>5334</v>
       </c>
       <c r="F702" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G702" s="2" t="n">
         <v>44936</v>
@@ -22921,13 +22921,13 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>635114</v>
+        <v>636793</v>
       </c>
       <c r="E703" t="n">
-        <v>34146</v>
+        <v>34230</v>
       </c>
       <c r="F703" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G703" s="2" t="n">
         <v>44927</v>
@@ -22953,10 +22953,10 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>409495</v>
+        <v>411740</v>
       </c>
       <c r="E704" t="n">
-        <v>22091</v>
+        <v>22192</v>
       </c>
       <c r="F704" t="n">
         <v>367</v>
@@ -22985,10 +22985,10 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>22666</v>
+        <v>22719</v>
       </c>
       <c r="E705" t="n">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F705" t="n">
         <v>97</v>
@@ -23017,13 +23017,13 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>102724</v>
+        <v>102786</v>
       </c>
       <c r="E706" t="n">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="F706" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G706" s="2" t="n">
         <v>44892</v>
@@ -23049,10 +23049,10 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>316090</v>
+        <v>316383</v>
       </c>
       <c r="E707" t="n">
-        <v>20852</v>
+        <v>20874</v>
       </c>
       <c r="F707" t="n">
         <v>626</v>
@@ -23081,10 +23081,10 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>85804</v>
+        <v>86124</v>
       </c>
       <c r="E708" t="n">
-        <v>5317</v>
+        <v>5330</v>
       </c>
       <c r="F708" t="n">
         <v>224</v>
@@ -23113,13 +23113,13 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>60720</v>
+        <v>60826</v>
       </c>
       <c r="E709" t="n">
-        <v>3303</v>
+        <v>3311</v>
       </c>
       <c r="F709" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G709" s="2" t="n">
         <v>44831</v>
@@ -23145,10 +23145,10 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>45526</v>
+        <v>45549</v>
       </c>
       <c r="E710" t="n">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F710" t="n">
         <v>169</v>
@@ -23177,13 +23177,13 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>105903</v>
+        <v>106229</v>
       </c>
       <c r="E711" t="n">
-        <v>5926</v>
+        <v>5948</v>
       </c>
       <c r="F711" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G711" s="2" t="n">
         <v>44771</v>
@@ -23209,10 +23209,10 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>56318</v>
+        <v>56412</v>
       </c>
       <c r="E712" t="n">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="F712" t="n">
         <v>245</v>
@@ -23241,10 +23241,10 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>65999</v>
+        <v>66047</v>
       </c>
       <c r="E713" t="n">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="F713" t="n">
         <v>401</v>
@@ -23273,13 +23273,13 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>129514</v>
+        <v>129970</v>
       </c>
       <c r="E714" t="n">
-        <v>7234</v>
+        <v>7260</v>
       </c>
       <c r="F714" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G714" s="2" t="n">
         <v>44739</v>
@@ -23305,10 +23305,10 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>69229</v>
+        <v>69319</v>
       </c>
       <c r="E715" t="n">
-        <v>3862</v>
+        <v>3868</v>
       </c>
       <c r="F715" t="n">
         <v>185</v>
@@ -23337,10 +23337,10 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>229153</v>
+        <v>229211</v>
       </c>
       <c r="E716" t="n">
-        <v>12466</v>
+        <v>12470</v>
       </c>
       <c r="F716" t="n">
         <v>779</v>
@@ -23369,13 +23369,13 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>240296</v>
+        <v>240387</v>
       </c>
       <c r="E717" t="n">
-        <v>9929</v>
+        <v>9933</v>
       </c>
       <c r="F717" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G717" s="2" t="n">
         <v>44714</v>
@@ -23401,10 +23401,10 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>115176</v>
+        <v>115288</v>
       </c>
       <c r="E718" t="n">
-        <v>6318</v>
+        <v>6320</v>
       </c>
       <c r="F718" t="n">
         <v>227</v>
@@ -23433,10 +23433,10 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>94939</v>
+        <v>95127</v>
       </c>
       <c r="E719" t="n">
-        <v>4903</v>
+        <v>4907</v>
       </c>
       <c r="F719" t="n">
         <v>132</v>
@@ -23465,13 +23465,13 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>196279</v>
+        <v>196379</v>
       </c>
       <c r="E720" t="n">
-        <v>11259</v>
+        <v>11265</v>
       </c>
       <c r="F720" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G720" s="2" t="n">
         <v>44688</v>
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>61353</v>
+        <v>61371</v>
       </c>
       <c r="E721" t="n">
         <v>3657</v>
@@ -23529,10 +23529,10 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>123803</v>
+        <v>123850</v>
       </c>
       <c r="E722" t="n">
-        <v>5998</v>
+        <v>5999</v>
       </c>
       <c r="F722" t="n">
         <v>284</v>
@@ -23561,10 +23561,10 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>67440</v>
+        <v>67495</v>
       </c>
       <c r="E723" t="n">
-        <v>4084</v>
+        <v>4088</v>
       </c>
       <c r="F723" t="n">
         <v>189</v>
@@ -23593,13 +23593,13 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>421400</v>
+        <v>421971</v>
       </c>
       <c r="E724" t="n">
-        <v>17150</v>
+        <v>17166</v>
       </c>
       <c r="F724" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G724" s="2" t="n">
         <v>44660</v>
@@ -23625,10 +23625,10 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>56858</v>
+        <v>56893</v>
       </c>
       <c r="E725" t="n">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="F725" t="n">
         <v>200</v>
@@ -23657,10 +23657,10 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>90395</v>
+        <v>90422</v>
       </c>
       <c r="E726" t="n">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="F726" t="n">
         <v>237</v>
@@ -23689,13 +23689,13 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>60410</v>
+        <v>60470</v>
       </c>
       <c r="E727" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F727" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G727" s="2" t="n">
         <v>44638</v>
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>38097</v>
+        <v>38118</v>
       </c>
       <c r="E728" t="n">
         <v>1578</v>
@@ -23753,7 +23753,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>48567</v>
+        <v>48581</v>
       </c>
       <c r="E729" t="n">
         <v>1830</v>
@@ -23785,7 +23785,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>34233</v>
+        <v>34244</v>
       </c>
       <c r="E730" t="n">
         <v>1407</v>
@@ -23817,10 +23817,10 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>344884</v>
+        <v>345049</v>
       </c>
       <c r="E731" t="n">
-        <v>17202</v>
+        <v>17206</v>
       </c>
       <c r="F731" t="n">
         <v>579</v>
@@ -23849,10 +23849,10 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>57957</v>
+        <v>57962</v>
       </c>
       <c r="E732" t="n">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F732" t="n">
         <v>150</v>
@@ -23881,10 +23881,10 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>615520</v>
+        <v>615843</v>
       </c>
       <c r="E733" t="n">
-        <v>38820</v>
+        <v>38837</v>
       </c>
       <c r="F733" t="n">
         <v>624</v>
@@ -23913,7 +23913,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>14446</v>
+        <v>14453</v>
       </c>
       <c r="E734" t="n">
         <v>595</v>
@@ -23945,10 +23945,10 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>202150</v>
+        <v>202179</v>
       </c>
       <c r="E735" t="n">
-        <v>9095</v>
+        <v>9096</v>
       </c>
       <c r="F735" t="n">
         <v>382</v>
@@ -23977,10 +23977,10 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>49339</v>
+        <v>49348</v>
       </c>
       <c r="E736" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="F736" t="n">
         <v>102</v>
@@ -24009,7 +24009,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>22622</v>
+        <v>22627</v>
       </c>
       <c r="E737" t="n">
         <v>939</v>
@@ -24041,10 +24041,10 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>62616</v>
+        <v>62636</v>
       </c>
       <c r="E738" t="n">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="F738" t="n">
         <v>125</v>
@@ -24073,7 +24073,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>120135</v>
+        <v>120146</v>
       </c>
       <c r="E739" t="n">
         <v>2987</v>
@@ -24105,10 +24105,10 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>75618</v>
+        <v>75662</v>
       </c>
       <c r="E740" t="n">
-        <v>4217</v>
+        <v>4221</v>
       </c>
       <c r="F740" t="n">
         <v>159</v>
@@ -24137,13 +24137,13 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>200082</v>
+        <v>200150</v>
       </c>
       <c r="E741" t="n">
-        <v>7858</v>
+        <v>7862</v>
       </c>
       <c r="F741" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G741" s="2" t="n">
         <v>44528</v>
@@ -24169,10 +24169,10 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>31321</v>
+        <v>31329</v>
       </c>
       <c r="E742" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F742" t="n">
         <v>52</v>
@@ -24201,13 +24201,13 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>106391</v>
+        <v>106463</v>
       </c>
       <c r="E743" t="n">
-        <v>6838</v>
+        <v>6846</v>
       </c>
       <c r="F743" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G743" s="2" t="n">
         <v>44509</v>
@@ -24233,10 +24233,10 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>138053</v>
+        <v>138134</v>
       </c>
       <c r="E744" t="n">
-        <v>7604</v>
+        <v>7609</v>
       </c>
       <c r="F744" t="n">
         <v>204</v>
@@ -24265,7 +24265,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>11943</v>
+        <v>11944</v>
       </c>
       <c r="E745" t="n">
         <v>487</v>
@@ -24297,10 +24297,10 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>80293</v>
+        <v>80338</v>
       </c>
       <c r="E746" t="n">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="F746" t="n">
         <v>172</v>
@@ -24329,13 +24329,13 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>2085951</v>
+        <v>2090444</v>
       </c>
       <c r="E747" t="n">
-        <v>95654</v>
+        <v>95800</v>
       </c>
       <c r="F747" t="n">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G747" s="2" t="n">
         <v>44478</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>272315</v>
+        <v>272423</v>
       </c>
       <c r="E748" t="n">
-        <v>9887</v>
+        <v>9892</v>
       </c>
       <c r="F748" t="n">
         <v>483</v>
@@ -24393,10 +24393,10 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>687625</v>
+        <v>688398</v>
       </c>
       <c r="E749" t="n">
-        <v>19700</v>
+        <v>19712</v>
       </c>
       <c r="F749" t="n">
         <v>950</v>
@@ -24425,10 +24425,10 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>495140</v>
+        <v>495227</v>
       </c>
       <c r="E750" t="n">
-        <v>22029</v>
+        <v>22037</v>
       </c>
       <c r="F750" t="n">
         <v>860</v>
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>98444</v>
+        <v>98466</v>
       </c>
       <c r="E751" t="n">
         <v>4635</v>
@@ -24489,10 +24489,10 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>49514</v>
+        <v>49533</v>
       </c>
       <c r="E752" t="n">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="F752" t="n">
         <v>146</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>315426</v>
+        <v>315591</v>
       </c>
       <c r="E753" t="n">
-        <v>15777</v>
+        <v>15788</v>
       </c>
       <c r="F753" t="n">
         <v>352</v>
@@ -24553,10 +24553,10 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>52481</v>
+        <v>52519</v>
       </c>
       <c r="E754" t="n">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F754" t="n">
         <v>144</v>
@@ -24585,10 +24585,10 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>199928</v>
+        <v>200153</v>
       </c>
       <c r="E755" t="n">
-        <v>10147</v>
+        <v>10162</v>
       </c>
       <c r="F755" t="n">
         <v>253</v>
@@ -24617,7 +24617,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>34824</v>
+        <v>34843</v>
       </c>
       <c r="E756" t="n">
         <v>1358</v>
@@ -24649,10 +24649,10 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>74929</v>
+        <v>74975</v>
       </c>
       <c r="E757" t="n">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="F757" t="n">
         <v>145</v>
@@ -24681,10 +24681,10 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>188356</v>
+        <v>188418</v>
       </c>
       <c r="E758" t="n">
-        <v>8960</v>
+        <v>8963</v>
       </c>
       <c r="F758" t="n">
         <v>257</v>
@@ -24713,10 +24713,10 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>29720</v>
+        <v>29735</v>
       </c>
       <c r="E759" t="n">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F759" t="n">
         <v>151</v>
@@ -24745,10 +24745,10 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>30342</v>
+        <v>30357</v>
       </c>
       <c r="E760" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F760" t="n">
         <v>50</v>
@@ -24777,7 +24777,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>62866</v>
+        <v>62872</v>
       </c>
       <c r="E761" t="n">
         <v>1851</v>
@@ -24809,10 +24809,10 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>262557</v>
+        <v>262710</v>
       </c>
       <c r="E762" t="n">
-        <v>10568</v>
+        <v>10574</v>
       </c>
       <c r="F762" t="n">
         <v>270</v>
@@ -24841,7 +24841,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>7134</v>
+        <v>7135</v>
       </c>
       <c r="E763" t="n">
         <v>192</v>
@@ -24873,10 +24873,10 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>50586</v>
+        <v>50625</v>
       </c>
       <c r="E764" t="n">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="F764" t="n">
         <v>134</v>
@@ -24905,7 +24905,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>22739</v>
+        <v>22742</v>
       </c>
       <c r="E765" t="n">
         <v>653</v>
@@ -24937,10 +24937,10 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>81479</v>
+        <v>81570</v>
       </c>
       <c r="E766" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="F766" t="n">
         <v>85</v>
@@ -24969,13 +24969,13 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>3147459</v>
+        <v>3149041</v>
       </c>
       <c r="E767" t="n">
-        <v>177441</v>
+        <v>177522</v>
       </c>
       <c r="F767" t="n">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="G767" s="2" t="n">
         <v>44311</v>
@@ -25001,7 +25001,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>82796</v>
+        <v>82864</v>
       </c>
       <c r="E768" t="n">
         <v>1865</v>
@@ -25033,10 +25033,10 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>452080</v>
+        <v>452346</v>
       </c>
       <c r="E769" t="n">
-        <v>13946</v>
+        <v>13948</v>
       </c>
       <c r="F769" t="n">
         <v>588</v>
@@ -25065,13 +25065,13 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>2124670</v>
+        <v>2133995</v>
       </c>
       <c r="E770" t="n">
-        <v>75614</v>
+        <v>75932</v>
       </c>
       <c r="F770" t="n">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G770" s="2" t="n">
         <v>44290</v>
@@ -25097,10 +25097,10 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>53644</v>
+        <v>53710</v>
       </c>
       <c r="E771" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F771" t="n">
         <v>200</v>
@@ -25129,13 +25129,13 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>330388</v>
+        <v>330574</v>
       </c>
       <c r="E772" t="n">
-        <v>11495</v>
+        <v>11499</v>
       </c>
       <c r="F772" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G772" s="2" t="n">
         <v>44275</v>
@@ -25161,7 +25161,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>27374</v>
+        <v>27384</v>
       </c>
       <c r="E773" t="n">
         <v>830</v>
@@ -25225,7 +25225,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>15670</v>
+        <v>15676</v>
       </c>
       <c r="E775" t="n">
         <v>680</v>
@@ -25257,7 +25257,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>6128</v>
+        <v>6129</v>
       </c>
       <c r="E776" t="n">
         <v>220</v>
@@ -25289,13 +25289,13 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>50495</v>
+        <v>50537</v>
       </c>
       <c r="E777" t="n">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F777" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G777" s="2" t="n">
         <v>44248</v>
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>18301</v>
+        <v>18302</v>
       </c>
       <c r="E778" t="n">
         <v>681</v>
@@ -25353,7 +25353,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>5718</v>
+        <v>5722</v>
       </c>
       <c r="E779" t="n">
         <v>294</v>
@@ -25385,7 +25385,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>61094</v>
+        <v>61115</v>
       </c>
       <c r="E780" t="n">
         <v>2251</v>
@@ -25417,10 +25417,10 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>292361</v>
+        <v>292377</v>
       </c>
       <c r="E781" t="n">
-        <v>7692</v>
+        <v>7693</v>
       </c>
       <c r="F781" t="n">
         <v>515</v>
@@ -25449,10 +25449,10 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>99261</v>
+        <v>99319</v>
       </c>
       <c r="E782" t="n">
-        <v>4043</v>
+        <v>4045</v>
       </c>
       <c r="F782" t="n">
         <v>224</v>
@@ -25481,7 +25481,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>15606</v>
+        <v>15607</v>
       </c>
       <c r="E783" t="n">
         <v>355</v>
@@ -25513,10 +25513,10 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>467063</v>
+        <v>467191</v>
       </c>
       <c r="E784" t="n">
-        <v>21369</v>
+        <v>21381</v>
       </c>
       <c r="F784" t="n">
         <v>631</v>
@@ -25545,7 +25545,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>8984</v>
+        <v>8988</v>
       </c>
       <c r="E785" t="n">
         <v>439</v>
@@ -25577,7 +25577,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>11369</v>
+        <v>11375</v>
       </c>
       <c r="E786" t="n">
         <v>300</v>
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>14467</v>
+        <v>14471</v>
       </c>
       <c r="E787" t="n">
         <v>300</v>
@@ -25641,10 +25641,10 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>38297</v>
+        <v>38364</v>
       </c>
       <c r="E788" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="F788" t="n">
         <v>63</v>
@@ -25673,7 +25673,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>18693</v>
+        <v>18704</v>
       </c>
       <c r="E789" t="n">
         <v>368</v>
@@ -25705,7 +25705,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>15683</v>
+        <v>15701</v>
       </c>
       <c r="E790" t="n">
         <v>478</v>
@@ -25737,7 +25737,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>104344</v>
+        <v>104425</v>
       </c>
       <c r="E791" t="n">
         <v>2686</v>
@@ -25769,7 +25769,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>9534</v>
+        <v>9535</v>
       </c>
       <c r="E792" t="n">
         <v>251</v>
@@ -25801,7 +25801,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>230059</v>
+        <v>230100</v>
       </c>
       <c r="E793" t="n">
         <v>6180</v>
@@ -25833,7 +25833,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>7345</v>
+        <v>7347</v>
       </c>
       <c r="E794" t="n">
         <v>188</v>
@@ -25865,7 +25865,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>29053</v>
+        <v>29064</v>
       </c>
       <c r="E795" t="n">
         <v>1934</v>
@@ -25897,7 +25897,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>7375</v>
+        <v>7379</v>
       </c>
       <c r="E796" t="n">
         <v>186</v>
@@ -25929,10 +25929,10 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>5059</v>
+        <v>5064</v>
       </c>
       <c r="E797" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F797" t="n">
         <v>22</v>
@@ -25961,7 +25961,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>12465</v>
+        <v>12468</v>
       </c>
       <c r="E798" t="n">
         <v>322</v>
@@ -25993,7 +25993,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>14667</v>
+        <v>14677</v>
       </c>
       <c r="E799" t="n">
         <v>318</v>
@@ -26025,7 +26025,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="E800" t="n">
         <v>164</v>
@@ -26057,7 +26057,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>14540</v>
+        <v>14545</v>
       </c>
       <c r="E801" t="n">
         <v>341</v>
@@ -26089,10 +26089,10 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>89446</v>
+        <v>89505</v>
       </c>
       <c r="E802" t="n">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="F802" t="n">
         <v>205</v>
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="E803" t="n">
         <v>130</v>
@@ -26153,7 +26153,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>30116</v>
+        <v>30132</v>
       </c>
       <c r="E804" t="n">
         <v>890</v>
@@ -26185,10 +26185,10 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>22516</v>
+        <v>22526</v>
       </c>
       <c r="E805" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F805" t="n">
         <v>72</v>
@@ -26217,10 +26217,10 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>227584</v>
+        <v>227648</v>
       </c>
       <c r="E806" t="n">
-        <v>7854</v>
+        <v>7857</v>
       </c>
       <c r="F806" t="n">
         <v>302</v>
@@ -26249,7 +26249,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>12879</v>
+        <v>12891</v>
       </c>
       <c r="E807" t="n">
         <v>350</v>
@@ -26281,7 +26281,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>19199</v>
+        <v>19224</v>
       </c>
       <c r="E808" t="n">
         <v>1016</v>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>68400</v>
+        <v>68428</v>
       </c>
       <c r="E809" t="n">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="F809" t="n">
         <v>204</v>
@@ -26345,7 +26345,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="E810" t="n">
         <v>71</v>
@@ -26377,10 +26377,10 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>106686</v>
+        <v>106735</v>
       </c>
       <c r="E811" t="n">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="F811" t="n">
         <v>233</v>
@@ -26409,7 +26409,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>6777</v>
+        <v>6784</v>
       </c>
       <c r="E812" t="n">
         <v>190</v>
@@ -26441,7 +26441,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>15375</v>
+        <v>15389</v>
       </c>
       <c r="E813" t="n">
         <v>441</v>
@@ -26473,7 +26473,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>29848</v>
+        <v>29864</v>
       </c>
       <c r="E814" t="n">
         <v>994</v>
@@ -26505,10 +26505,10 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>369166</v>
+        <v>369452</v>
       </c>
       <c r="E815" t="n">
-        <v>16876</v>
+        <v>16886</v>
       </c>
       <c r="F815" t="n">
         <v>656</v>
@@ -26537,7 +26537,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>21580</v>
+        <v>21594</v>
       </c>
       <c r="E816" t="n">
         <v>351</v>
